--- a/Översikt OSKARSHAMN.xlsx
+++ b/Översikt OSKARSHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44984</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>45923</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         <v>45170</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>45439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>45769</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45722.66604166666</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45460</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44952</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>45384.62541666667</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45715.72884259259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>45392.54690972222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>45691</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45240.38040509259</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>45175</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>45468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>45701.583125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>44574</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>44340</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>45701.63065972222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         <v>45371.85241898148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>44786</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>44552</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>45873</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>45012.62950231481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>45708.47785879629</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>44568.37201388889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>45218</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>45769.58797453704</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>45568</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>45446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>44252</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>44406</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>44411.66887731481</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>44427</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>44343</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>45884.64704861111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>45834.63185185185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>45811.51012731482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>45581.63248842592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>44820</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>45833.45934027778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>45908.52792824074</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>45034</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45224.44094907407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>45839.55894675926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>45530.38290509259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44342</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>45098.56957175926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>45330</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>45987</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>45700.71092592592</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>45540.50771990741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>45175</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>44803.67887731481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>44490.37232638889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>44489</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>44431.84994212963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44350</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>44315</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>44308.39359953703</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>44245</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>44620</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44487.86196759259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>44418</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44489</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>44426</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44426</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44613</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44866.57854166667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>44515.62953703704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>44546.80212962963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44603</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44580</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44851.52685185185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44516</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44313</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44443</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44855</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44761</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44588.89677083334</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44315</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44806</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44477</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44447</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44245</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44245</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44539.87791666666</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44539.86778935185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44546.80259259259</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44483.44872685185</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44428</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44446</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44866.59038194444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44497.45600694444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44711.52076388889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44573</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44544</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>44389.34473379629</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44307.35981481482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>44308.37342592593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44768.45408564815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>44704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>44488</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44477</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44621.80555555555</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>44596.27380787037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44712.65646990741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44869.53516203703</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>44711.46028935185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>44348</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>44302</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>44593</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>44865</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44399</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44596</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44713</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44712.65084490741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44251</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44593</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>44685.48917824074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>44515.62549768519</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44756.58146990741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44756.60337962963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44791</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44789</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44818</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44818</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44656.73034722222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44965</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44503.73760416666</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>44756.89907407408</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44978.39695601852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>45531</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>45580.40394675926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>45580.43162037037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>45267.81273148148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>45267.8203125</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45267</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>45448</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>45448</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>45567.66055555556</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>45408.6706712963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>45728.50771990741</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44743</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>45364.50273148148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>45051.67450231482</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>45110</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>45110.47371527777</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>44754</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11500,7 +11500,7 @@
         <v>44573</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44749.77997685185</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>45348.84033564815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>45348.84243055555</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>45348.84297453704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44365</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>45729.45061342593</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>45629.65581018518</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>45372.60196759259</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>45432.5475</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>45489.9324537037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>45490.63440972222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>45349.67712962963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44995.56314814815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>45022</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>45691.58703703704</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>45721.47692129629</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>45253.87519675926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44818</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44951</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44440</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44917.35297453704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>45799.39888888889</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>45019</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>45526.89289351852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>45482.97067129629</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>45198</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>45754.63101851852</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>45294.67804398148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>45204.579375</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>45408.45277777778</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>45256.86208333333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>45163.50626157408</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>45408.68166666666</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>45212.75959490741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>45147</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45207</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>45805</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>45314.62943287037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>45384.88273148148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>45384.88486111111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45888.58804398148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45610.44954861111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45888.46310185185</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>45888.46814814815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45784</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45811.54190972223</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>45385.65364583334</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>45754</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44994.46226851852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>45812.36875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>45411.36979166666</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>45147</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44664</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>45895.46616898148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>45895.50965277778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>44663</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>45714.85896990741</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45895.47204861111</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45894.5816550926</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45894.62370370371</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45223.58754629629</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45818.54527777778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45897.56394675926</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>45784</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45833.49329861111</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45901.66758101852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45901.67497685185</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45784</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>45323</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45330</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45043.35755787037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45805.58600694445</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>45754.24792824074</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45110</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>45359.3833912037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>45902.94496527778</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>45811.64633101852</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45523.62600694445</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45168</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         <v>45617.87493055555</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45254.43631944444</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>44602.92667824074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>45825.35740740741</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45905.61246527778</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>45904.5440162037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45904.60271990741</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>45908.35832175926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>45908.46075231482</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>45208.38356481482</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>45736.40155092593</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16831,7 +16831,7 @@
         <v>45908.52967592593</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
         <v>45908.43879629629</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>45908.47855324074</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         <v>45825.36836805556</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         <v>45909.59903935185</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>45909.61186342593</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>45825.47642361111</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>45831.33773148148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>45909.60825231481</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>45204.60113425926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>45911.52084490741</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         <v>45369.46770833333</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         <v>45369.47578703704</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         <v>45021</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17629,7 +17629,7 @@
         <v>44817</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         <v>45212</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>44711.45408564815</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>45827.35274305556</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>44818</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>45916.61013888889</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>45240</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44862</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>45805.69674768519</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>45113</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>45832.43137731482</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>45832.46736111111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18318,7 +18318,7 @@
         <v>45096</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18375,7 +18375,7 @@
         <v>45832.42618055556</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>45832.43704861111</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>45832.45224537037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>45832.58109953703</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>45923.58810185185</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>45832.45052083334</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>45832.58603009259</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45337</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>45034</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>44914.54905092593</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>44914.59553240741</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>45833.59315972222</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19059,7 +19059,7 @@
         <v>45792.68268518519</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19116,7 +19116,7 @@
         <v>45908</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19173,7 +19173,7 @@
         <v>45601</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19230,7 +19230,7 @@
         <v>45929.44982638889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>45691.53809027778</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>45113</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>45792.67280092592</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44452</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>45274</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>45908</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>45908</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>45929.65825231482</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>45792.65657407408</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>45007.34189814814</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>45929.62671296296</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45929.63778935185</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19976,7 +19976,7 @@
         <v>45929.65375</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20033,7 +20033,7 @@
         <v>45929.65623842592</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20090,7 +20090,7 @@
         <v>45929.62909722222</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         <v>45931.39258101852</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20204,7 +20204,7 @@
         <v>45931.3561574074</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>45931.48358796296</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>45931.50462962963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20375,7 +20375,7 @@
         <v>45929.75799768518</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
         <v>45931.56587962963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>45931.51418981481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         <v>45931.52960648148</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20603,7 +20603,7 @@
         <v>45931</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20660,7 +20660,7 @@
         <v>45931.54503472222</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20717,7 +20717,7 @@
         <v>45929.75545138889</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20774,7 +20774,7 @@
         <v>45931.45490740741</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>45930.50012731482</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
         <v>45930.56650462963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>45930.48523148148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>45930.48887731481</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>45930.48167824074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>45224.44980324074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>45838.57329861111</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>45931.56813657407</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         <v>45931.49530092593</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45929.75690972222</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45931.56197916667</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21458,7 +21458,7 @@
         <v>44836.68821759259</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21515,7 +21515,7 @@
         <v>45617.87357638889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
         <v>45254.37971064815</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21634,7 +21634,7 @@
         <v>44467.68127314815</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         <v>44963</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         <v>45216</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21805,7 +21805,7 @@
         <v>45560.40998842593</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>44963.63244212963</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>44970.63949074074</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>45840.48972222222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>45939.63331018519</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22090,7 +22090,7 @@
         <v>44455.39767361111</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22152,7 +22152,7 @@
         <v>45530.38103009259</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45252.65233796297</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45645.45909722222</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45769</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45769</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45873</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44984.76328703704</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45944.64350694444</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45196.87342592593</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22675,7 +22675,7 @@
         <v>44342</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>45831</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>44564.60331018519</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22846,7 +22846,7 @@
         <v>44395.72300925926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45589.44753472223</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45950</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>45950</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45280.85986111111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45697.94736111111</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>45953</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>45953</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45873.44460648148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>44488</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45113.64251157407</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45209.5540625</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45957</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>44378.82424768519</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23649,7 +23649,7 @@
         <v>45113.73296296296</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23706,7 +23706,7 @@
         <v>45873.45185185185</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>44980.8393287037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>44994.47293981481</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>45697.94650462963</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>45371.85089120371</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23996,7 +23996,7 @@
         <v>45371.85148148148</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>45371.85366898148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>45209</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>45463.40362268518</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>45961.55065972222</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44977</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45960.38200231481</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>45965.43626157408</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>45964</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>45075</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>45964.55121527778</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
         <v>45967</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24695,7 +24695,7 @@
         <v>45469.51068287037</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>44613</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45756.54372685185</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45968</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44539.86905092592</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>45258.63960648148</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>45769.55505787037</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>45224.42729166667</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44951.64454861111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>45834.67012731481</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44443</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>45975</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>45975</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25441,7 +25441,7 @@
         <v>44377</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         <v>45884.35498842593</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25555,7 +25555,7 @@
         <v>45280.85377314815</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>45280.86780092592</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>45979.66076388889</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>45979.64767361111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>45978.51693287037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>44978.76613425926</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45412.44052083333</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45985.64153935185</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45985.62451388889</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45985.62953703704</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45985.64751157408</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>46026</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>45580.42582175926</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45987</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26353,7 +26353,7 @@
         <v>45987</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26410,7 +26410,7 @@
         <v>45987</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26467,7 +26467,7 @@
         <v>45986</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26524,7 +26524,7 @@
         <v>45986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26581,7 +26581,7 @@
         <v>45268.36550925926</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>45987</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45041.69135416667</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45989.44925925926</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>45989.56349537037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>46030.34734953703</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>46030.35164351852</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26985,7 +26985,7 @@
         <v>45742</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27042,7 +27042,7 @@
         <v>44837.43305555556</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27099,7 +27099,7 @@
         <v>44987</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>44621</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>46030.53576388889</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>45989.57084490741</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45320</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>44917</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45433</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>45448.51262731481</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>45372</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27617,7 +27617,7 @@
         <v>44547</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>44945</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27731,7 +27731,7 @@
         <v>45204.56902777778</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27788,7 +27788,7 @@
         <v>44987.48240740741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27845,7 +27845,7 @@
         <v>46035.6003125</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27902,7 +27902,7 @@
         <v>46035.61033564815</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27959,7 +27959,7 @@
         <v>44865</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28016,7 +28016,7 @@
         <v>45526.77546296296</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45435.42290509259</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>46035.45234953704</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45523.6602662037</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45603.54962962963</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>44621.9492824074</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45373.70664351852</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45098</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45208.3799537037</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>44981.45752314815</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45695.39277777778</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>44980.57952546296</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45610.41706018519</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45610.45115740741</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45610.45636574074</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>45610.45759259259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>44995.54377314815</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>44630</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>44973</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29109,7 +29109,7 @@
         <v>45323</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29166,7 +29166,7 @@
         <v>45002</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29223,7 +29223,7 @@
         <v>45002</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29280,7 +29280,7 @@
         <v>45092</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29337,7 +29337,7 @@
         <v>45097</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29394,7 +29394,7 @@
         <v>46042.51072916666</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29451,7 +29451,7 @@
         <v>46042.52923611111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29508,7 +29508,7 @@
         <v>45012.68758101852</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         <v>46042.51363425926</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29622,7 +29622,7 @@
         <v>45999.97754629629</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29679,7 +29679,7 @@
         <v>45999.99611111111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29736,7 +29736,7 @@
         <v>46000.00444444444</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29793,7 +29793,7 @@
         <v>46001.45331018518</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29850,7 +29850,7 @@
         <v>46001.45693287037</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29907,7 +29907,7 @@
         <v>44455</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>46001.46215277778</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>46001.58747685186</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>45999.84392361111</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30140,7 +30140,7 @@
         <v>46043.6021412037</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30197,7 +30197,7 @@
         <v>45369.47645833333</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30254,7 +30254,7 @@
         <v>45999.87527777778</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>45999.87908564815</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30378,7 +30378,7 @@
         <v>45999.88106481481</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30440,7 +30440,7 @@
         <v>45999.98979166667</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30497,7 +30497,7 @@
         <v>46042.63504629629</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30554,7 +30554,7 @@
         <v>44995.5321412037</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30611,7 +30611,7 @@
         <v>44820</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30668,7 +30668,7 @@
         <v>46001.47655092592</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30725,7 +30725,7 @@
         <v>45999.83951388889</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30787,7 +30787,7 @@
         <v>45999.84214120371</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30849,7 +30849,7 @@
         <v>45999.87179398148</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30911,7 +30911,7 @@
         <v>45999.98384259259</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30968,7 +30968,7 @@
         <v>45999.9933912037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31025,7 +31025,7 @@
         <v>46042.64681712963</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31082,7 +31082,7 @@
         <v>45099</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31139,7 +31139,7 @@
         <v>44917</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>46045.61725694445</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31253,7 +31253,7 @@
         <v>45198.40052083333</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31310,7 +31310,7 @@
         <v>44915.65098379629</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31367,7 +31367,7 @@
         <v>46043.96223379629</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>46044.69398148148</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31481,7 +31481,7 @@
         <v>46007.44689814815</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31538,7 +31538,7 @@
         <v>45531</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>46007.43628472222</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44749.77538194445</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44621.67178240741</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>45448</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31823,7 +31823,7 @@
         <v>46007.45577546296</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31880,7 +31880,7 @@
         <v>46049.66416666667</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31937,7 +31937,7 @@
         <v>45110</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31994,7 +31994,7 @@
         <v>46007</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32051,7 +32051,7 @@
         <v>45369.47766203704</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32108,7 +32108,7 @@
         <v>45075.59990740741</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32165,7 +32165,7 @@
         <v>45075</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32222,7 +32222,7 @@
         <v>46007</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32279,7 +32279,7 @@
         <v>45483.4747337963</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32336,7 +32336,7 @@
         <v>46007.44221064815</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32393,7 +32393,7 @@
         <v>45695.39430555556</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32450,7 +32450,7 @@
         <v>45695.39592592593</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32507,7 +32507,7 @@
         <v>44251</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32564,7 +32564,7 @@
         <v>45182.380625</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32621,7 +32621,7 @@
         <v>44551.46303240741</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32678,7 +32678,7 @@
         <v>46050.73391203704</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32735,7 +32735,7 @@
         <v>45267.81482638889</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32797,7 +32797,7 @@
         <v>45267.82079861111</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32859,7 +32859,7 @@
         <v>45617.87163194444</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32921,7 +32921,7 @@
         <v>46009.39746527778</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32978,7 +32978,7 @@
         <v>45110</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33035,7 +33035,7 @@
         <v>44505</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33092,7 +33092,7 @@
         <v>46051.46449074074</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33149,7 +33149,7 @@
         <v>45567.65388888889</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33206,7 +33206,7 @@
         <v>44547.35026620371</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33263,7 +33263,7 @@
         <v>46009.67722222222</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33320,7 +33320,7 @@
         <v>46051.4155787037</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33377,7 +33377,7 @@
         <v>46009.46263888889</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33434,7 +33434,7 @@
         <v>45406.66635416666</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33491,7 +33491,7 @@
         <v>45407.35842592592</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33548,7 +33548,7 @@
         <v>46009.56550925926</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33605,7 +33605,7 @@
         <v>45056.65377314815</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33662,7 +33662,7 @@
         <v>45644.52768518519</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33719,7 +33719,7 @@
         <v>45090.69114583333</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>45215</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>45432.89364583333</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33895,7 +33895,7 @@
         <v>44755.59465277778</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>45601.60582175926</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>45113.45962962963</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44348.51484953704</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>46009</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>46009</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>45240.65537037037</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>45687.66491898148</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>46057.41944444444</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44245</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44494</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44879</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>45526.77328703704</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34641,7 +34641,7 @@
         <v>45526.77930555555</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34703,7 +34703,7 @@
         <v>44951.6371412037</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>45386</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>45348.83865740741</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34879,7 +34879,7 @@
         <v>44908</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34936,7 +34936,7 @@
         <v>46058</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34993,7 +34993,7 @@
         <v>46059.46849537037</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35050,7 +35050,7 @@
         <v>45700.69986111111</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35107,7 +35107,7 @@
         <v>46058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>46058</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35221,7 +35221,7 @@
         <v>45432.8953587963</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44713</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>45691.5424537037</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         <v>45091</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35454,7 +35454,7 @@
         <v>45702.42196759259</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35511,7 +35511,7 @@
         <v>45763.53839120371</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>45701.37699074074</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>44900</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>45224.44408564815</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>45341.80892361111</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>44539.87341435185</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35858,7 +35858,7 @@
         <v>44711</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35915,7 +35915,7 @@
         <v>44608</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35972,7 +35972,7 @@
         <v>44624.49346064815</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36029,7 +36029,7 @@
         <v>45256.87429398148</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36086,7 +36086,7 @@
         <v>44403</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36143,7 +36143,7 @@
         <v>45195</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36200,7 +36200,7 @@
         <v>44620.87751157407</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36257,7 +36257,7 @@
         <v>44461</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36314,7 +36314,7 @@
         <v>45204.55690972223</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36371,7 +36371,7 @@
         <v>45379.66810185185</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36428,7 +36428,7 @@
         <v>45560.49635416667</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36485,7 +36485,7 @@
         <v>45736.49748842593</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36542,7 +36542,7 @@
         <v>45614.3915625</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36599,7 +36599,7 @@
         <v>44818</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36656,7 +36656,7 @@
         <v>45022.55422453704</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36713,7 +36713,7 @@
         <v>45240.37828703703</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36770,7 +36770,7 @@
         <v>45691.54719907408</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36827,7 +36827,7 @@
         <v>44483</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36884,7 +36884,7 @@
         <v>45169</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36941,7 +36941,7 @@
         <v>44585.98170138889</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36998,7 +36998,7 @@
         <v>45372.56440972222</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37055,7 +37055,7 @@
         <v>45224.41850694444</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37112,7 +37112,7 @@
         <v>45317</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37169,7 +37169,7 @@
         <v>44865.60001157408</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37226,7 +37226,7 @@
         <v>45056.64768518518</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37283,7 +37283,7 @@
         <v>44446</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>45526.77739583333</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37402,7 +37402,7 @@
         <v>45448.52702546296</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         <v>45448.61481481481</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37516,7 +37516,7 @@
         <v>45015</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>45329</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
         <v>44356</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37687,7 +37687,7 @@
         <v>45240</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37744,7 +37744,7 @@
         <v>45240</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37801,7 +37801,7 @@
         <v>44253</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37858,7 +37858,7 @@
         <v>45252</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37915,7 +37915,7 @@
         <v>45244</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37972,7 +37972,7 @@
         <v>45098.64069444445</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38029,7 +38029,7 @@
         <v>45604</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38086,7 +38086,7 @@
         <v>45580.42840277778</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38143,7 +38143,7 @@
         <v>45371.85319444445</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38205,7 +38205,7 @@
         <v>45377</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38262,7 +38262,7 @@
         <v>45644.49186342592</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38319,7 +38319,7 @@
         <v>45625.59788194444</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38376,7 +38376,7 @@
         <v>44733.64194444445</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38433,7 +38433,7 @@
         <v>45385.65076388889</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38490,7 +38490,7 @@
         <v>45218.56766203704</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38547,7 +38547,7 @@
         <v>45092.40744212963</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38604,7 +38604,7 @@
         <v>45034</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38661,7 +38661,7 @@
         <v>45490.61532407408</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38718,7 +38718,7 @@
         <v>45603.45233796296</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38775,7 +38775,7 @@
         <v>44490</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38832,7 +38832,7 @@
         <v>45113</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38889,7 +38889,7 @@
         <v>45244.36743055555</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         <v>45267</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39008,7 +39008,7 @@
         <v>45720.65146990741</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39065,7 +39065,7 @@
         <v>45519.58827546296</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39122,7 +39122,7 @@
         <v>45372.58623842592</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39179,7 +39179,7 @@
         <v>45372</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39236,7 +39236,7 @@
         <v>45012</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39293,7 +39293,7 @@
         <v>45726.82771990741</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39350,7 +39350,7 @@
         <v>45531</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39407,7 +39407,7 @@
         <v>45098.52928240741</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39464,7 +39464,7 @@
         <v>45735.36414351852</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39521,7 +39521,7 @@
         <v>45267.81348379629</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39583,7 +39583,7 @@
         <v>45267</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39645,7 +39645,7 @@
         <v>45391.32674768518</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39702,7 +39702,7 @@
         <v>45379.69200231481</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39759,7 +39759,7 @@
         <v>45490.636875</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39816,7 +39816,7 @@
         <v>44980.61068287037</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39873,7 +39873,7 @@
         <v>45105</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39930,7 +39930,7 @@
         <v>45096.46872685185</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39987,7 +39987,7 @@
         <v>45041.68686342592</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40044,7 +40044,7 @@
         <v>44943</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40101,7 +40101,7 @@
         <v>45566.88295138889</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40163,7 +40163,7 @@
         <v>45405.52</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40220,7 +40220,7 @@
         <v>45405.52430555555</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40277,7 +40277,7 @@
         <v>45531</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40334,7 +40334,7 @@
         <v>44865</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40396,7 +40396,7 @@
         <v>45258.62900462963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40453,7 +40453,7 @@
         <v>45539.56</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40510,7 +40510,7 @@
         <v>45490.64616898148</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40567,7 +40567,7 @@
         <v>45245.35430555556</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40624,7 +40624,7 @@
         <v>45196</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40681,7 +40681,7 @@
         <v>45604</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40738,7 +40738,7 @@
         <v>45218.60378472223</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40795,7 +40795,7 @@
         <v>45168</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40852,7 +40852,7 @@
         <v>45314.63751157407</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40909,7 +40909,7 @@
         <v>45036</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40966,7 +40966,7 @@
         <v>45769.54868055556</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41023,7 +41023,7 @@
         <v>45553.51680555556</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41080,7 +41080,7 @@
         <v>45110</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41137,7 +41137,7 @@
         <v>45621</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41194,7 +41194,7 @@
         <v>45643.5005787037</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41251,7 +41251,7 @@
         <v>45708.56193287037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41308,7 +41308,7 @@
         <v>44489</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41365,7 +41365,7 @@
         <v>45566.88059027777</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41427,7 +41427,7 @@
         <v>44995.4984375</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41484,7 +41484,7 @@
         <v>45103.49568287037</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41541,7 +41541,7 @@
         <v>45103</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41598,7 +41598,7 @@
         <v>45099</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41655,7 +41655,7 @@
         <v>45572</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41712,7 +41712,7 @@
         <v>45736.39861111111</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41769,7 +41769,7 @@
         <v>44488</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         <v>45709.46929398148</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41883,7 +41883,7 @@
         <v>45113</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41940,7 +41940,7 @@
         <v>45348.83976851852</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42002,7 +42002,7 @@
         <v>45028.37586805555</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42059,7 +42059,7 @@
         <v>45754</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42116,7 +42116,7 @@
         <v>45740</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42173,7 +42173,7 @@
         <v>45119.38265046296</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42230,7 +42230,7 @@
         <v>45468.59137731481</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42292,7 +42292,7 @@
         <v>45469.6294212963</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42349,7 +42349,7 @@
         <v>45469.6204050926</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42406,7 +42406,7 @@
         <v>45691</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42463,7 +42463,7 @@
         <v>45782.44434027778</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42520,7 +42520,7 @@
         <v>45782.46638888889</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42582,7 +42582,7 @@
         <v>45728.39811342592</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42639,7 +42639,7 @@
         <v>45525.70791666667</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42696,7 +42696,7 @@
         <v>45233</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42753,7 +42753,7 @@
         <v>45224</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42810,7 +42810,7 @@
         <v>45474.51827546296</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42867,7 +42867,7 @@
         <v>45572.45870370371</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42924,7 +42924,7 @@
         <v>45708.58996527778</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42981,7 +42981,7 @@
         <v>45632.75246527778</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43038,7 +43038,7 @@
         <v>45754.60855324074</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43095,7 +43095,7 @@
         <v>45792.60909722222</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43157,7 +43157,7 @@
         <v>45796.28685185185</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43214,7 +43214,7 @@
         <v>45797.45616898148</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43271,7 +43271,7 @@
         <v>45204</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>

--- a/Översikt OSKARSHAMN.xlsx
+++ b/Översikt OSKARSHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44984</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>45923</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         <v>45170</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>45439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>45769</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45722.66604166666</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45460</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44952</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>45384.62541666667</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45715.72884259259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>45392.54690972222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>45691</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45240.38040509259</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>45175</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>45468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>45701.583125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>44574</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>44340</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>45701.63065972222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         <v>45371.85241898148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>44786</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>44552</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>45873</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>45012.62950231481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>45708.47785879629</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>44568.37201388889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>45218</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>45769.58797453704</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>45568</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>45446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>44252</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>44406</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>44411.66887731481</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>44427</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>44343</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>45884.64704861111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>45834.63185185185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>45811.51012731482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>45581.63248842592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>44820</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>45833.45934027778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>45908.52792824074</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>45034</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45224.44094907407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>45839.55894675926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>45530.38290509259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44342</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>45098.56957175926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>45330</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>45987</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>45700.71092592592</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>45540.50771990741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>45175</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>44803.67887731481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>44490.37232638889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>44489</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>44431.84994212963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44350</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>44315</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>44308.39359953703</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>44245</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>44620</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44487.86196759259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>44418</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44489</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>44426</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44426</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44613</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44866.57854166667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>44515.62953703704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>44546.80212962963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44603</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44580</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44851.52685185185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44516</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44313</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44443</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44855</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44761</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44588.89677083334</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44315</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44806</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44477</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44447</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44245</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44245</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44539.87791666666</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44539.86778935185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44546.80259259259</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44483.44872685185</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44428</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44446</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44866.59038194444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44497.45600694444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44711.52076388889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44573</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44544</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>44389.34473379629</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44307.35981481482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>44308.37342592593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44768.45408564815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>44704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>44488</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44477</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44621.80555555555</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>44596.27380787037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44712.65646990741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44869.53516203703</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>44711.46028935185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>44348</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>44302</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>44593</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>44865</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44399</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44596</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44713</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44712.65084490741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44251</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44593</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>44685.48917824074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>44515.62549768519</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44756.58146990741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44756.60337962963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44791</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44789</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44818</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44818</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44656.73034722222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44965</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44503.73760416666</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>44756.89907407408</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44978.39695601852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>45531</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>45580.40394675926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>45580.43162037037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>45267.81273148148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>45267.8203125</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45267</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>45448</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>45448</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>45567.66055555556</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>45408.6706712963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>45728.50771990741</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44743</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>45364.50273148148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>45051.67450231482</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>45110</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>45110.47371527777</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>44754</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11500,7 +11500,7 @@
         <v>44573</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44749.77997685185</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>45348.84033564815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>45348.84243055555</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>45348.84297453704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44365</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>45729.45061342593</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>45629.65581018518</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>45372.60196759259</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>45432.5475</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>45489.9324537037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>45490.63440972222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>45349.67712962963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44995.56314814815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>45022</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>45691.58703703704</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>45721.47692129629</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>45253.87519675926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44818</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44951</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44440</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44917.35297453704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>45799.39888888889</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>45019</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>45526.89289351852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>45482.97067129629</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>45198</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>45754.63101851852</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>45294.67804398148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>45204.579375</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>45408.45277777778</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>45256.86208333333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>45163.50626157408</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>45408.68166666666</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>45212.75959490741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>45147</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45207</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>45805</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>45314.62943287037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>45384.88273148148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>45384.88486111111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45888.58804398148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45610.44954861111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45888.46310185185</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>45888.46814814815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45784</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45811.54190972223</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>45385.65364583334</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>45754</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44994.46226851852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>45812.36875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>45411.36979166666</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>45147</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44664</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>45895.46616898148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>45895.50965277778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>44663</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>45714.85896990741</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45895.47204861111</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45894.5816550926</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45894.62370370371</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45223.58754629629</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45818.54527777778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45897.56394675926</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>45784</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45833.49329861111</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45901.66758101852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45901.67497685185</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45784</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>45323</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45330</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45043.35755787037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45805.58600694445</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>45754.24792824074</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45110</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>45359.3833912037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>45902.94496527778</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>45811.64633101852</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45523.62600694445</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45168</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         <v>45617.87493055555</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45254.43631944444</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>44602.92667824074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>45825.35740740741</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45905.61246527778</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>45904.5440162037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45904.60271990741</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>45908.35832175926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>45908.46075231482</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>45208.38356481482</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>45736.40155092593</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16831,7 +16831,7 @@
         <v>45908.52967592593</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
         <v>45908.43879629629</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>45908.47855324074</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         <v>45825.36836805556</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         <v>45909.59903935185</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>45909.61186342593</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>45825.47642361111</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>45831.33773148148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>45909.60825231481</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>45204.60113425926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>45911.52084490741</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         <v>45369.46770833333</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         <v>45369.47578703704</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         <v>45021</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17629,7 +17629,7 @@
         <v>44817</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         <v>45212</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>44711.45408564815</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>45827.35274305556</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>44818</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>45916.61013888889</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>45240</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44862</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>45805.69674768519</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>45113</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>45832.43137731482</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>45832.46736111111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18318,7 +18318,7 @@
         <v>45096</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18375,7 +18375,7 @@
         <v>45832.42618055556</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>45832.43704861111</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>45832.45224537037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>45832.58109953703</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>45923.58810185185</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>45832.45052083334</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>45832.58603009259</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45337</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>45034</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>44914.54905092593</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>44914.59553240741</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>45833.59315972222</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19059,7 +19059,7 @@
         <v>45792.68268518519</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19116,7 +19116,7 @@
         <v>45908</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19173,7 +19173,7 @@
         <v>45601</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19230,7 +19230,7 @@
         <v>45929.44982638889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>45691.53809027778</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>45113</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>45792.67280092592</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44452</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>45274</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>45908</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>45908</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>45929.65825231482</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>45792.65657407408</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>45007.34189814814</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>45929.62671296296</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45929.63778935185</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19976,7 +19976,7 @@
         <v>45929.65375</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20033,7 +20033,7 @@
         <v>45929.65623842592</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20090,7 +20090,7 @@
         <v>45929.62909722222</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         <v>45931.39258101852</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20204,7 +20204,7 @@
         <v>45931.3561574074</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>45931.48358796296</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>45931.50462962963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20375,7 +20375,7 @@
         <v>45929.75799768518</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
         <v>45931.56587962963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>45931.51418981481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         <v>45931.52960648148</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20603,7 +20603,7 @@
         <v>45931</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20660,7 +20660,7 @@
         <v>45931.54503472222</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20717,7 +20717,7 @@
         <v>45929.75545138889</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20774,7 +20774,7 @@
         <v>45931.45490740741</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>45930.50012731482</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
         <v>45930.56650462963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>45930.48523148148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>45930.48887731481</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>45930.48167824074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>45224.44980324074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>45838.57329861111</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>45931.56813657407</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         <v>45931.49530092593</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45929.75690972222</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45931.56197916667</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21458,7 +21458,7 @@
         <v>44836.68821759259</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21515,7 +21515,7 @@
         <v>45617.87357638889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
         <v>45254.37971064815</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21634,7 +21634,7 @@
         <v>44467.68127314815</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         <v>44963</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         <v>45216</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21805,7 +21805,7 @@
         <v>45560.40998842593</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>44963.63244212963</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>44970.63949074074</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>45840.48972222222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>45939.63331018519</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22090,7 +22090,7 @@
         <v>44455.39767361111</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22152,7 +22152,7 @@
         <v>45530.38103009259</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45252.65233796297</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45645.45909722222</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45769</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45769</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45873</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44984.76328703704</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45944.64350694444</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45196.87342592593</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22675,7 +22675,7 @@
         <v>44342</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>45831</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>44564.60331018519</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22846,7 +22846,7 @@
         <v>44395.72300925926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45589.44753472223</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45950</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>45950</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45280.85986111111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45697.94736111111</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>45953</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>45953</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45873.44460648148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>44488</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45113.64251157407</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45209.5540625</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45957</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>44378.82424768519</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23649,7 +23649,7 @@
         <v>45113.73296296296</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23706,7 +23706,7 @@
         <v>45873.45185185185</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>44980.8393287037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>44994.47293981481</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>45697.94650462963</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>45371.85089120371</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23996,7 +23996,7 @@
         <v>45371.85148148148</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>45371.85366898148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>45209</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>45463.40362268518</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>45961.55065972222</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44977</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45960.38200231481</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>45965.43626157408</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>45964</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>45075</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>45964.55121527778</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
         <v>45967</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24695,7 +24695,7 @@
         <v>45469.51068287037</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>44613</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45756.54372685185</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45968</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44539.86905092592</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>45258.63960648148</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>45769.55505787037</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>45224.42729166667</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44951.64454861111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>45834.67012731481</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44443</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>45975</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>45975</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25441,7 +25441,7 @@
         <v>44377</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         <v>45884.35498842593</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25555,7 +25555,7 @@
         <v>45280.85377314815</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>45280.86780092592</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>45979.66076388889</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>45979.64767361111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>45978.51693287037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>44978.76613425926</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45412.44052083333</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45985.64153935185</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45985.62451388889</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45985.62953703704</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45985.64751157408</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>46026</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>45580.42582175926</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45987</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26353,7 +26353,7 @@
         <v>45987</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26410,7 +26410,7 @@
         <v>45987</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26467,7 +26467,7 @@
         <v>45986</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26524,7 +26524,7 @@
         <v>45986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26581,7 +26581,7 @@
         <v>45268.36550925926</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>45987</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45041.69135416667</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45989.44925925926</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>45989.56349537037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>46030.34734953703</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>46030.35164351852</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26985,7 +26985,7 @@
         <v>45742</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27042,7 +27042,7 @@
         <v>44837.43305555556</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27099,7 +27099,7 @@
         <v>44987</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>44621</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>46030.53576388889</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>45989.57084490741</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45320</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>44917</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45433</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>45448.51262731481</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>45372</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27617,7 +27617,7 @@
         <v>44547</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>44945</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27731,7 +27731,7 @@
         <v>45204.56902777778</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27788,7 +27788,7 @@
         <v>44987.48240740741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27845,7 +27845,7 @@
         <v>46035.6003125</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27902,7 +27902,7 @@
         <v>46035.61033564815</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27959,7 +27959,7 @@
         <v>44865</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28016,7 +28016,7 @@
         <v>45526.77546296296</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45435.42290509259</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>46035.45234953704</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45523.6602662037</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45603.54962962963</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>44621.9492824074</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45373.70664351852</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45098</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45208.3799537037</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>44981.45752314815</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45695.39277777778</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>44980.57952546296</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45610.41706018519</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45610.45115740741</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45610.45636574074</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>45610.45759259259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>44995.54377314815</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>44630</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>44973</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29109,7 +29109,7 @@
         <v>45323</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29166,7 +29166,7 @@
         <v>45002</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29223,7 +29223,7 @@
         <v>45002</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29280,7 +29280,7 @@
         <v>45092</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29337,7 +29337,7 @@
         <v>45097</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29394,7 +29394,7 @@
         <v>46042.51072916666</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29451,7 +29451,7 @@
         <v>46042.52923611111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29508,7 +29508,7 @@
         <v>45012.68758101852</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         <v>46042.51363425926</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29622,7 +29622,7 @@
         <v>45999.97754629629</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29679,7 +29679,7 @@
         <v>45999.99611111111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29736,7 +29736,7 @@
         <v>46000.00444444444</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29793,7 +29793,7 @@
         <v>46001.45331018518</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29850,7 +29850,7 @@
         <v>46001.45693287037</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29907,7 +29907,7 @@
         <v>44455</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>46001.46215277778</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>46001.58747685186</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>45999.84392361111</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30140,7 +30140,7 @@
         <v>46043.6021412037</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30197,7 +30197,7 @@
         <v>45369.47645833333</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30254,7 +30254,7 @@
         <v>45999.87527777778</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>45999.87908564815</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30378,7 +30378,7 @@
         <v>45999.88106481481</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30440,7 +30440,7 @@
         <v>45999.98979166667</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30497,7 +30497,7 @@
         <v>46042.63504629629</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30554,7 +30554,7 @@
         <v>44995.5321412037</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30611,7 +30611,7 @@
         <v>44820</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30668,7 +30668,7 @@
         <v>46001.47655092592</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30725,7 +30725,7 @@
         <v>45999.83951388889</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30787,7 +30787,7 @@
         <v>45999.84214120371</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30849,7 +30849,7 @@
         <v>45999.87179398148</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30911,7 +30911,7 @@
         <v>45999.98384259259</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30968,7 +30968,7 @@
         <v>45999.9933912037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31025,7 +31025,7 @@
         <v>46042.64681712963</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31082,7 +31082,7 @@
         <v>45099</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31139,7 +31139,7 @@
         <v>44917</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>46045.61725694445</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31253,7 +31253,7 @@
         <v>45198.40052083333</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31310,7 +31310,7 @@
         <v>44915.65098379629</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31367,7 +31367,7 @@
         <v>46043.96223379629</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>46044.69398148148</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31481,7 +31481,7 @@
         <v>46007.44689814815</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31538,7 +31538,7 @@
         <v>45531</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>46007.43628472222</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44749.77538194445</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44621.67178240741</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>45448</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31823,7 +31823,7 @@
         <v>46007.45577546296</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31880,7 +31880,7 @@
         <v>46049.66416666667</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31937,7 +31937,7 @@
         <v>45110</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31994,7 +31994,7 @@
         <v>46007</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32051,7 +32051,7 @@
         <v>45369.47766203704</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32108,7 +32108,7 @@
         <v>45075.59990740741</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32165,7 +32165,7 @@
         <v>45075</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32222,7 +32222,7 @@
         <v>46007</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32279,7 +32279,7 @@
         <v>45483.4747337963</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32336,7 +32336,7 @@
         <v>46007.44221064815</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32393,7 +32393,7 @@
         <v>45695.39430555556</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32450,7 +32450,7 @@
         <v>45695.39592592593</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32507,7 +32507,7 @@
         <v>44251</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32564,7 +32564,7 @@
         <v>45182.380625</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32621,7 +32621,7 @@
         <v>44551.46303240741</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32678,7 +32678,7 @@
         <v>46050.73391203704</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32735,7 +32735,7 @@
         <v>45267.81482638889</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32797,7 +32797,7 @@
         <v>45267.82079861111</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32859,7 +32859,7 @@
         <v>45617.87163194444</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32921,7 +32921,7 @@
         <v>46009.39746527778</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32978,7 +32978,7 @@
         <v>45110</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33035,7 +33035,7 @@
         <v>44505</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33092,7 +33092,7 @@
         <v>46051.46449074074</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33149,7 +33149,7 @@
         <v>45567.65388888889</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33206,7 +33206,7 @@
         <v>44547.35026620371</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33263,7 +33263,7 @@
         <v>46009.67722222222</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33320,7 +33320,7 @@
         <v>46051.4155787037</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33377,7 +33377,7 @@
         <v>46009.46263888889</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33434,7 +33434,7 @@
         <v>45406.66635416666</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33491,7 +33491,7 @@
         <v>45407.35842592592</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33548,7 +33548,7 @@
         <v>46009.56550925926</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33605,7 +33605,7 @@
         <v>45056.65377314815</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33662,7 +33662,7 @@
         <v>45644.52768518519</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33719,7 +33719,7 @@
         <v>45090.69114583333</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>45215</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>45432.89364583333</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33895,7 +33895,7 @@
         <v>44755.59465277778</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>45601.60582175926</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>45113.45962962963</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44348.51484953704</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>46009</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>46009</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>45240.65537037037</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>45687.66491898148</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>46057.41944444444</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44245</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44494</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44879</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>45526.77328703704</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34641,7 +34641,7 @@
         <v>45526.77930555555</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34703,7 +34703,7 @@
         <v>44951.6371412037</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>45386</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>45348.83865740741</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34879,7 +34879,7 @@
         <v>44908</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34936,7 +34936,7 @@
         <v>46058</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34993,7 +34993,7 @@
         <v>46059.46849537037</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35050,7 +35050,7 @@
         <v>45700.69986111111</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35107,7 +35107,7 @@
         <v>46058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>46058</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35221,7 +35221,7 @@
         <v>45432.8953587963</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44713</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>45691.5424537037</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         <v>45091</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35454,7 +35454,7 @@
         <v>45702.42196759259</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35511,7 +35511,7 @@
         <v>45763.53839120371</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>45701.37699074074</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>44900</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>45224.44408564815</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>45341.80892361111</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>44539.87341435185</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35858,7 +35858,7 @@
         <v>44711</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35915,7 +35915,7 @@
         <v>44608</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35972,7 +35972,7 @@
         <v>44624.49346064815</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36029,7 +36029,7 @@
         <v>45256.87429398148</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36086,7 +36086,7 @@
         <v>44403</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36143,7 +36143,7 @@
         <v>45195</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36200,7 +36200,7 @@
         <v>44620.87751157407</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36257,7 +36257,7 @@
         <v>44461</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36314,7 +36314,7 @@
         <v>45204.55690972223</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36371,7 +36371,7 @@
         <v>45379.66810185185</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36428,7 +36428,7 @@
         <v>45560.49635416667</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36485,7 +36485,7 @@
         <v>45736.49748842593</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36542,7 +36542,7 @@
         <v>45614.3915625</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36599,7 +36599,7 @@
         <v>44818</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36656,7 +36656,7 @@
         <v>45022.55422453704</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36713,7 +36713,7 @@
         <v>45240.37828703703</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36770,7 +36770,7 @@
         <v>45691.54719907408</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36827,7 +36827,7 @@
         <v>44483</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36884,7 +36884,7 @@
         <v>45169</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36941,7 +36941,7 @@
         <v>44585.98170138889</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36998,7 +36998,7 @@
         <v>45372.56440972222</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37055,7 +37055,7 @@
         <v>45224.41850694444</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37112,7 +37112,7 @@
         <v>45317</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37169,7 +37169,7 @@
         <v>44865.60001157408</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37226,7 +37226,7 @@
         <v>45056.64768518518</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37283,7 +37283,7 @@
         <v>44446</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>45526.77739583333</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37402,7 +37402,7 @@
         <v>45448.52702546296</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         <v>45448.61481481481</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37516,7 +37516,7 @@
         <v>45015</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>45329</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
         <v>44356</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37687,7 +37687,7 @@
         <v>45240</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37744,7 +37744,7 @@
         <v>45240</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37801,7 +37801,7 @@
         <v>44253</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37858,7 +37858,7 @@
         <v>45252</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37915,7 +37915,7 @@
         <v>45244</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37972,7 +37972,7 @@
         <v>45098.64069444445</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38029,7 +38029,7 @@
         <v>45604</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38086,7 +38086,7 @@
         <v>45580.42840277778</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38143,7 +38143,7 @@
         <v>45371.85319444445</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38205,7 +38205,7 @@
         <v>45377</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38262,7 +38262,7 @@
         <v>45644.49186342592</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38319,7 +38319,7 @@
         <v>45625.59788194444</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38376,7 +38376,7 @@
         <v>44733.64194444445</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38433,7 +38433,7 @@
         <v>45385.65076388889</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38490,7 +38490,7 @@
         <v>45218.56766203704</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38547,7 +38547,7 @@
         <v>45092.40744212963</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38604,7 +38604,7 @@
         <v>45034</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38661,7 +38661,7 @@
         <v>45490.61532407408</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38718,7 +38718,7 @@
         <v>45603.45233796296</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38775,7 +38775,7 @@
         <v>44490</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38832,7 +38832,7 @@
         <v>45113</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38889,7 +38889,7 @@
         <v>45244.36743055555</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         <v>45267</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39008,7 +39008,7 @@
         <v>45720.65146990741</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39065,7 +39065,7 @@
         <v>45519.58827546296</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39122,7 +39122,7 @@
         <v>45372.58623842592</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39179,7 +39179,7 @@
         <v>45372</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39236,7 +39236,7 @@
         <v>45012</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39293,7 +39293,7 @@
         <v>45726.82771990741</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39350,7 +39350,7 @@
         <v>45531</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39407,7 +39407,7 @@
         <v>45098.52928240741</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39464,7 +39464,7 @@
         <v>45735.36414351852</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39521,7 +39521,7 @@
         <v>45267.81348379629</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39583,7 +39583,7 @@
         <v>45267</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39645,7 +39645,7 @@
         <v>45391.32674768518</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39702,7 +39702,7 @@
         <v>45379.69200231481</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39759,7 +39759,7 @@
         <v>45490.636875</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39816,7 +39816,7 @@
         <v>44980.61068287037</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39873,7 +39873,7 @@
         <v>45105</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39930,7 +39930,7 @@
         <v>45096.46872685185</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39987,7 +39987,7 @@
         <v>45041.68686342592</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40044,7 +40044,7 @@
         <v>44943</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40101,7 +40101,7 @@
         <v>45566.88295138889</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40163,7 +40163,7 @@
         <v>45405.52</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40220,7 +40220,7 @@
         <v>45405.52430555555</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40277,7 +40277,7 @@
         <v>45531</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40334,7 +40334,7 @@
         <v>44865</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40396,7 +40396,7 @@
         <v>45258.62900462963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40453,7 +40453,7 @@
         <v>45539.56</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40510,7 +40510,7 @@
         <v>45490.64616898148</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40567,7 +40567,7 @@
         <v>45245.35430555556</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40624,7 +40624,7 @@
         <v>45196</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40681,7 +40681,7 @@
         <v>45604</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40738,7 +40738,7 @@
         <v>45218.60378472223</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40795,7 +40795,7 @@
         <v>45168</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40852,7 +40852,7 @@
         <v>45314.63751157407</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40909,7 +40909,7 @@
         <v>45036</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40966,7 +40966,7 @@
         <v>45769.54868055556</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41023,7 +41023,7 @@
         <v>45553.51680555556</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41080,7 +41080,7 @@
         <v>45110</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41137,7 +41137,7 @@
         <v>45621</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41194,7 +41194,7 @@
         <v>45643.5005787037</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41251,7 +41251,7 @@
         <v>45708.56193287037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41308,7 +41308,7 @@
         <v>44489</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41365,7 +41365,7 @@
         <v>45566.88059027777</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41427,7 +41427,7 @@
         <v>44995.4984375</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41484,7 +41484,7 @@
         <v>45103.49568287037</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41541,7 +41541,7 @@
         <v>45103</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41598,7 +41598,7 @@
         <v>45099</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41655,7 +41655,7 @@
         <v>45572</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41712,7 +41712,7 @@
         <v>45736.39861111111</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41769,7 +41769,7 @@
         <v>44488</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         <v>45709.46929398148</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41883,7 +41883,7 @@
         <v>45113</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41940,7 +41940,7 @@
         <v>45348.83976851852</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42002,7 +42002,7 @@
         <v>45028.37586805555</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42059,7 +42059,7 @@
         <v>45754</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42116,7 +42116,7 @@
         <v>45740</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42173,7 +42173,7 @@
         <v>45119.38265046296</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42230,7 +42230,7 @@
         <v>45468.59137731481</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42292,7 +42292,7 @@
         <v>45469.6294212963</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42349,7 +42349,7 @@
         <v>45469.6204050926</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42406,7 +42406,7 @@
         <v>45691</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42463,7 +42463,7 @@
         <v>45782.44434027778</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42520,7 +42520,7 @@
         <v>45782.46638888889</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42582,7 +42582,7 @@
         <v>45728.39811342592</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42639,7 +42639,7 @@
         <v>45525.70791666667</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42696,7 +42696,7 @@
         <v>45233</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42753,7 +42753,7 @@
         <v>45224</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42810,7 +42810,7 @@
         <v>45474.51827546296</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42867,7 +42867,7 @@
         <v>45572.45870370371</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42924,7 +42924,7 @@
         <v>45708.58996527778</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42981,7 +42981,7 @@
         <v>45632.75246527778</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43038,7 +43038,7 @@
         <v>45754.60855324074</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43095,7 +43095,7 @@
         <v>45792.60909722222</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43157,7 +43157,7 @@
         <v>45796.28685185185</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43214,7 +43214,7 @@
         <v>45797.45616898148</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43271,7 +43271,7 @@
         <v>45204</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>

--- a/Översikt OSKARSHAMN.xlsx
+++ b/Översikt OSKARSHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44984</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>45923</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         <v>45170</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>45439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>45769</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45722.66604166666</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45460</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44952</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>45384.62541666667</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45715.72884259259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>45392.54690972222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>45691</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45240.38040509259</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>45175</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>45468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>45701.583125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>44340</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>45701.63065972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>45371.85241898148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44574</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>44786</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>44552</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>45873</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>45012.62950231481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>46063</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>45708.47785879629</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>44593</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>44568.37201388889</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>45769.58797453704</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>45446</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>45568</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>45218</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>45113</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44252</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>44406</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44411.66887731481</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44427</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>44343</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>45884.64704861111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>45834.63185185185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>45581.63248842592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>44820</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>45833.45934027778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>45908.52792824074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>45839.55894675926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>45034</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45224.44094907407</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>45530.38290509259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>44342</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>45098.56957175926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>45330</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>45987</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>45700.71092592592</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>45540.50771990741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>45175</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>45811.51012731482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44803.67887731481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44490.37232638889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44489</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44431.84994212963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44350</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>44315</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44308.39359953703</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44620</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44487.86196759259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         <v>44778</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>44418</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>44489</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>44426</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>44426</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>44613</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>44866.57854166667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>44515.62953703704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44546.80212962963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44603</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44580</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44851.52685185185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>44516</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44313</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44443</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44761</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44855</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44588.89677083334</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44315</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44806</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44477</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>44447</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>44539.87791666666</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>44539.86778935185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>44546.80259259259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44483.44872685185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>44428</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>44446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>44866.59038194444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>44497.45600694444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>44711.52076388889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>44573</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>44544</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>44389.34473379629</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>44307.35981481482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>44768.45408564815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>44308.37342592593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>44704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>44488</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>44477</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         <v>44621.80555555555</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>44596.27380787037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>44712.65646990741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>44869.53516203703</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>44711.46028935185</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>44302</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44348</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44593</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>44865</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44399</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44596</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44712.65084490741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44251</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44685.48917824074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44593</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44515.62549768519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44756.58146990741</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44756.60337962963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44791</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>44789</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44818</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>44818</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44627</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>44965</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44503.73760416666</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44656.73034722222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>45580.40394675926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>45580.43162037037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>45531</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>45267.81273148148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>45267.8203125</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>45267</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45448</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45448</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45567.66055555556</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44756.89907407408</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44978.39695601852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45728.50771990741</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45408.6706712963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44743</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44973</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45364.50273148148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44754</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>45051.67450231482</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>45110</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>45110.47371527777</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44573</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44749.77997685185</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>45729.45061342593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>45348.84033564815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>45348.84243055555</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>45348.84297453704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>45432.5475</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>44365</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>44995.56314814815</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>45372.60196759259</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>45489.9324537037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>45490.63440972222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>45721.47692129629</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>45349.67712962963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
         <v>45691.58703703704</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         <v>44818</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>45022</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12400,7 +12400,7 @@
         <v>44951</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
         <v>45253.87519675926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>44917.35297453704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>44440</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>44963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>45019</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>45198</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>45754.63101851852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>45482.97067129629</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>45294.67804398148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>45204.579375</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>45256.86208333333</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45163.50626157408</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>45147</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>45408.68166666666</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>45629.65581018518</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>45212.75959490741</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45207</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>45610.44954861111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>45385.65364583334</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>45314.62943287037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>45384.88273148148</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>45384.88486111111</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>45411.36979166666</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44664</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>45147</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>44663</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>45818.54527777778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>44994.46226851852</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>45714.85896990741</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>45818</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>45223.58754629629</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>45323</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>45888.58804398148</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>45825.35740740741</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>45330</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>45043.35755787037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>45888.46310185185</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>45888.46814814815</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>45754.24792824074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>45784</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>45825.36836805556</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>45825.47642361111</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>45110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>45359.3833912037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>45754</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45168</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45617.87493055555</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>45254.43631944444</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44602.92667824074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>45208.38356481482</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>45895.46616898148</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>45895.50965277778</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>45827.35274305556</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>45895.47204861111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>45805.69674768519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>45204.60113425926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>45894.5816550926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>45894.62370370371</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>45832.43137731482</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>45832.46736111111</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>45832.42618055556</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>45832.43704861111</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>45832.45224537037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>45369.46770833333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>45369.47578703704</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>45832.58109953703</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>45832.45052083334</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>45832.58603009259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>45897.56394675926</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16410,7 +16410,7 @@
         <v>45021</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16467,7 +16467,7 @@
         <v>44817</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16524,7 +16524,7 @@
         <v>45833.59315972222</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16581,7 +16581,7 @@
         <v>45784</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16638,7 +16638,7 @@
         <v>45833.49329861111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16695,7 +16695,7 @@
         <v>45212</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16752,7 +16752,7 @@
         <v>45901.66758101852</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16809,7 +16809,7 @@
         <v>44711.45408564815</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         <v>45792.68268518519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16923,7 +16923,7 @@
         <v>45901.67497685185</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>45691.53809027778</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         <v>45784</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         <v>45792.67280092592</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17151,7 +17151,7 @@
         <v>44818</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17208,7 +17208,7 @@
         <v>45240</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45792.65657407408</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>45805.58600694445</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>45113</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>45838.57329861111</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17550,7 +17550,7 @@
         <v>45902.94496527778</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17607,7 +17607,7 @@
         <v>45811.64633101852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>45523.62600694445</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>45096</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>45905.61246527778</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>45904.5440162037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>45904.60271990741</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>45908.35832175926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>45908.46075231482</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>45736.40155092593</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>45908.52967592593</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>45908.43879629629</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>45908.47855324074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>45909.59903935185</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>45909.61186342593</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>45831.33773148148</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>45337</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>45909.60825231481</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>45840.48972222222</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>45034</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44914.54905092593</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44914.59553240741</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>45601</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>45911.52084490741</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>45113</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>45645.45909722222</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44452</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>45274</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>45007.34189814814</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>45916.61013888889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>45224.44980324074</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44836.68821759259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>45617.87357638889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>45254.37971064815</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44467.68127314815</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>44963</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>45216</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>45560.40998842593</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>45923.58810185185</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>44963.63244212963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>44970.63949074074</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>45908</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>45929.44982638889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20011,7 +20011,7 @@
         <v>45873.44460648148</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>45908</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>45908</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20182,7 +20182,7 @@
         <v>45929.65825231482</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
         <v>44455.39767361111</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>45929.62671296296</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>45929.63778935185</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>45929.65375</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>45929.65623842592</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45929.62909722222</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45931.39258101852</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45931.3561574074</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45931.48358796296</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45931.50462962963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45929.75799768518</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45931.56587962963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45530.38103009259</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>45931.51418981481</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>45931.52960648148</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>45931</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>45931.54503472222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>45929.75545138889</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>45252.65233796297</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>45931.45490740741</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>45930.50012731482</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>45930.56650462963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>45930.48523148148</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>45930.48887731481</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>45930.48167824074</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45931.56813657407</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>45873.45185185185</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>45931.49530092593</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>45929.75690972222</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>45931.56197916667</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21959,7 +21959,7 @@
         <v>44984.76328703704</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22016,7 +22016,7 @@
         <v>45196.87342592593</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>44342</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>44564.60331018519</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>44395.72300925926</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>45589.44753472223</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>45756.54372685185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
         <v>45280.85986111111</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22420,7 +22420,7 @@
         <v>45939.63331018519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
         <v>45834.67012731481</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22534,7 +22534,7 @@
         <v>44443</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>45697.94736111111</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>44488</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45113.64251157407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>45209.5540625</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45769</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45769</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44378.82424768519</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>45873</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44377</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>45944.64350694444</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>45113.73296296296</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>45884.35498842593</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>45831</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44980.8393287037</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44994.47293981481</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>45697.94650462963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23508,7 +23508,7 @@
         <v>45371.85089120371</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>45371.85148148148</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>45371.85366898148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>45209</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>45950</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>45463.40362268518</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44977</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>45950</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>45075</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>45953</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>45953</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>45469.51068287037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>44613</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>45957</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>44539.86905092592</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>45258.63960648148</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24440,7 +24440,7 @@
         <v>45769.55505787037</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24497,7 +24497,7 @@
         <v>45224.42729166667</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24554,7 +24554,7 @@
         <v>45961.55065972222</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>44951.64454861111</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24668,7 +24668,7 @@
         <v>45960.38200231481</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24725,7 +24725,7 @@
         <v>45965.43626157408</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>45280.85377314815</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24839,7 +24839,7 @@
         <v>45280.86780092592</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>45964</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>45964.55121527778</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>45967</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25072,7 +25072,7 @@
         <v>44978.76613425926</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>45412.44052083333</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         <v>45968</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>45975</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>45975</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25357,7 +25357,7 @@
         <v>45580.42582175926</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25414,7 +25414,7 @@
         <v>45268.36550925926</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25476,7 +25476,7 @@
         <v>45979.66076388889</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         <v>45979.64767361111</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25590,7 +25590,7 @@
         <v>45978.51693287037</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         <v>45041.69135416667</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25704,7 +25704,7 @@
         <v>45742</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25761,7 +25761,7 @@
         <v>44837.43305555556</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>44987</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>44621</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>45320</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44917</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>45433</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>45448.51262731481</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>45372</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44547</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>45985.64153935185</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>45985.62451388889</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>45985.62953703704</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26450,7 +26450,7 @@
         <v>44945</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26507,7 +26507,7 @@
         <v>45204.56902777778</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26564,7 +26564,7 @@
         <v>44987.48240740741</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>45985.64751157408</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>44865</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>45526.77546296296</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>45987</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>45987</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>45435.42290509259</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>45987</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>45986</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>45986</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>45987</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>45989.44925925926</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>45989.56349537037</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27310,7 +27310,7 @@
         <v>45989.57084490741</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>45523.6602662037</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>45603.54962962963</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>44621.9492824074</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>45373.70664351852</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>45098</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>46035.6003125</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>45208.3799537037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>46035.61033564815</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>44981.45752314815</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27880,7 +27880,7 @@
         <v>45695.39277777778</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27937,7 +27937,7 @@
         <v>46035.45234953704</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>44980.57952546296</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>45610.41706018519</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>45610.45115740741</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>45610.45636574074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>45610.45759259259</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>44995.54377314815</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>44630</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>44973</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>45323</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>45002</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28569,7 +28569,7 @@
         <v>45002</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         <v>45092</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>45097</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>45012.68758101852</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>44455</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         <v>45369.47645833333</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28911,7 +28911,7 @@
         <v>44995.5321412037</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44820</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>46042.51072916666</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29082,7 +29082,7 @@
         <v>46042.52923611111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29139,7 +29139,7 @@
         <v>46042.51363425926</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29196,7 +29196,7 @@
         <v>45999.97754629629</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29253,7 +29253,7 @@
         <v>45999.99611111111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>46000.00444444444</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>46001.45331018518</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29424,7 +29424,7 @@
         <v>46001.45693287037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>45099</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         <v>44917</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29595,7 +29595,7 @@
         <v>46001.46215277778</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29652,7 +29652,7 @@
         <v>46001.58747685186</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         <v>45999.84392361111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29771,7 +29771,7 @@
         <v>46043.6021412037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29828,7 +29828,7 @@
         <v>45999.87527777778</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>45999.87908564815</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29952,7 +29952,7 @@
         <v>45999.88106481481</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30014,7 +30014,7 @@
         <v>45999.98979166667</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30071,7 +30071,7 @@
         <v>46042.63504629629</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30128,7 +30128,7 @@
         <v>46001.47655092592</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30185,7 +30185,7 @@
         <v>45999.83951388889</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30247,7 +30247,7 @@
         <v>45999.84214120371</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>45999.87179398148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30371,7 +30371,7 @@
         <v>45999.98384259259</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30428,7 +30428,7 @@
         <v>45999.9933912037</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30485,7 +30485,7 @@
         <v>46042.64681712963</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30542,7 +30542,7 @@
         <v>45198.40052083333</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30599,7 +30599,7 @@
         <v>44915.65098379629</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>46045.61725694445</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30713,7 +30713,7 @@
         <v>45531</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30770,7 +30770,7 @@
         <v>44749.77538194445</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44621.67178240741</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>45448</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30941,7 +30941,7 @@
         <v>45110</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>45369.47766203704</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>45075.59990740741</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>45075</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31169,7 +31169,7 @@
         <v>46043.96223379629</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31226,7 +31226,7 @@
         <v>46044.69398148148</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31283,7 +31283,7 @@
         <v>45483.4747337963</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31340,7 +31340,7 @@
         <v>45695.39430555556</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31397,7 +31397,7 @@
         <v>45695.39592592593</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>46007.44689814815</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31511,7 +31511,7 @@
         <v>46007.43628472222</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31568,7 +31568,7 @@
         <v>44251</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31625,7 +31625,7 @@
         <v>45182.380625</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31682,7 +31682,7 @@
         <v>46007.45577546296</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31739,7 +31739,7 @@
         <v>46049.66416666667</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31796,7 +31796,7 @@
         <v>44551.46303240741</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31853,7 +31853,7 @@
         <v>45267.81482638889</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>45267.82079861111</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>46007</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>45617.87163194444</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32096,7 +32096,7 @@
         <v>45110</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32153,7 +32153,7 @@
         <v>44505</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32210,7 +32210,7 @@
         <v>46007</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32267,7 +32267,7 @@
         <v>45567.65388888889</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32324,7 +32324,7 @@
         <v>44547.35026620371</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>46007.44221064815</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>45406.66635416666</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>45407.35842592592</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>46050.73391203704</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>45056.65377314815</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>46009.39746527778</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32723,7 +32723,7 @@
         <v>45644.52768518519</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32780,7 +32780,7 @@
         <v>46051.46449074074</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32837,7 +32837,7 @@
         <v>45090.69114583333</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32894,7 +32894,7 @@
         <v>45215</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32951,7 +32951,7 @@
         <v>46009.67722222222</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33008,7 +33008,7 @@
         <v>45432.89364583333</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>46051.4155787037</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>46009.46263888889</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>46009.56550925926</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33241,7 +33241,7 @@
         <v>44755.59465277778</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33298,7 +33298,7 @@
         <v>45601.60582175926</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         <v>45113.45962962963</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33412,7 +33412,7 @@
         <v>44348.51484953704</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33469,7 +33469,7 @@
         <v>45240.65537037037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33526,7 +33526,7 @@
         <v>45687.66491898148</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33583,7 +33583,7 @@
         <v>44494</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33640,7 +33640,7 @@
         <v>46009</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33697,7 +33697,7 @@
         <v>46009</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33754,7 +33754,7 @@
         <v>44879</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33811,7 +33811,7 @@
         <v>46057.41944444444</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33868,7 +33868,7 @@
         <v>45526.77328703704</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>45526.77930555555</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33992,7 +33992,7 @@
         <v>44951.6371412037</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34049,7 +34049,7 @@
         <v>45386</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34106,7 +34106,7 @@
         <v>45348.83865740741</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34168,7 +34168,7 @@
         <v>44908</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34225,7 +34225,7 @@
         <v>45700.69986111111</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34282,7 +34282,7 @@
         <v>46058</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34339,7 +34339,7 @@
         <v>46059.46849537037</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34396,7 +34396,7 @@
         <v>46058</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34453,7 +34453,7 @@
         <v>46058</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34510,7 +34510,7 @@
         <v>45432.8953587963</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34572,7 +34572,7 @@
         <v>46063.63849537037</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34629,7 +34629,7 @@
         <v>44713</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34686,7 +34686,7 @@
         <v>45691.5424537037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34743,7 +34743,7 @@
         <v>45091</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34800,7 +34800,7 @@
         <v>45702.42196759259</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34857,7 +34857,7 @@
         <v>45763.53839120371</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34914,7 +34914,7 @@
         <v>45701.37699074074</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34971,7 +34971,7 @@
         <v>44900</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35028,7 +35028,7 @@
         <v>45224.44408564815</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35085,7 +35085,7 @@
         <v>45341.80892361111</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35142,7 +35142,7 @@
         <v>46063</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35199,7 +35199,7 @@
         <v>44539.87341435185</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35261,7 +35261,7 @@
         <v>46026</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35318,7 +35318,7 @@
         <v>44711</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35375,7 +35375,7 @@
         <v>44608</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35432,7 +35432,7 @@
         <v>44624.49346064815</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35489,7 +35489,7 @@
         <v>45256.87429398148</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35546,7 +35546,7 @@
         <v>44403</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35603,7 +35603,7 @@
         <v>45195</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35660,7 +35660,7 @@
         <v>44620.87751157407</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35717,7 +35717,7 @@
         <v>46069</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35774,7 +35774,7 @@
         <v>44461</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35831,7 +35831,7 @@
         <v>46069</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35888,7 +35888,7 @@
         <v>45204.55690972223</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35945,7 +35945,7 @@
         <v>45379.66810185185</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36002,7 +36002,7 @@
         <v>46030.53576388889</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>46030.34734953703</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36116,7 +36116,7 @@
         <v>46030.35164351852</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>45560.49635416667</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>45736.49748842593</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>45614.3915625</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44818</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>45022.55422453704</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>45240.37828703703</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36515,7 +36515,7 @@
         <v>45691.54719907408</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36572,7 +36572,7 @@
         <v>44483</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36629,7 +36629,7 @@
         <v>45169</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36686,7 +36686,7 @@
         <v>44585.98170138889</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36743,7 +36743,7 @@
         <v>45372.56440972222</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36800,7 +36800,7 @@
         <v>45224.41850694444</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>45317</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44865.60001157408</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>45056.64768518518</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>44446</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
         <v>45526.77739583333</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37147,7 +37147,7 @@
         <v>45448.52702546296</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>45448.61481481481</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37261,7 +37261,7 @@
         <v>45015</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37318,7 +37318,7 @@
         <v>45329</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37375,7 +37375,7 @@
         <v>44356</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37432,7 +37432,7 @@
         <v>45240</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37489,7 +37489,7 @@
         <v>45240</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37546,7 +37546,7 @@
         <v>44253</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         <v>45252</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37660,7 +37660,7 @@
         <v>45244</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37717,7 +37717,7 @@
         <v>45098.64069444445</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37774,7 +37774,7 @@
         <v>45604</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>45580.42840277778</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37888,7 +37888,7 @@
         <v>45371.85319444445</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37950,7 +37950,7 @@
         <v>45377</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38007,7 +38007,7 @@
         <v>45644.49186342592</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38064,7 +38064,7 @@
         <v>45625.59788194444</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38121,7 +38121,7 @@
         <v>44733.64194444445</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38178,7 +38178,7 @@
         <v>45385.65076388889</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38235,7 +38235,7 @@
         <v>45218.56766203704</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38292,7 +38292,7 @@
         <v>45092.40744212963</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38349,7 +38349,7 @@
         <v>45034</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38406,7 +38406,7 @@
         <v>45490.61532407408</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38463,7 +38463,7 @@
         <v>45603.45233796296</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38520,7 +38520,7 @@
         <v>44490</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38577,7 +38577,7 @@
         <v>45113</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38634,7 +38634,7 @@
         <v>45244.36743055555</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38691,7 +38691,7 @@
         <v>45267</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38753,7 +38753,7 @@
         <v>45720.65146990741</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38810,7 +38810,7 @@
         <v>45519.58827546296</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38867,7 +38867,7 @@
         <v>45372.58623842592</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38924,7 +38924,7 @@
         <v>45372</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38981,7 +38981,7 @@
         <v>45012</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39038,7 +39038,7 @@
         <v>45726.82771990741</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39095,7 +39095,7 @@
         <v>45531</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39152,7 +39152,7 @@
         <v>45098.52928240741</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39209,7 +39209,7 @@
         <v>45735.36414351852</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         <v>45267.81348379629</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39328,7 +39328,7 @@
         <v>45267</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39390,7 +39390,7 @@
         <v>45391.32674768518</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39447,7 +39447,7 @@
         <v>45379.69200231481</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39504,7 +39504,7 @@
         <v>45490.636875</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39561,7 +39561,7 @@
         <v>44980.61068287037</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39618,7 +39618,7 @@
         <v>45105</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39675,7 +39675,7 @@
         <v>45096.46872685185</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39732,7 +39732,7 @@
         <v>45041.68686342592</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39789,7 +39789,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39846,7 +39846,7 @@
         <v>45566.88295138889</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39908,7 +39908,7 @@
         <v>45405.52</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39965,7 +39965,7 @@
         <v>45405.52430555555</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40022,7 +40022,7 @@
         <v>45531</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40079,7 +40079,7 @@
         <v>44865</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40141,7 +40141,7 @@
         <v>45258.62900462963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40198,7 +40198,7 @@
         <v>45539.56</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40255,7 +40255,7 @@
         <v>45490.64616898148</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40312,7 +40312,7 @@
         <v>45245.35430555556</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40369,7 +40369,7 @@
         <v>45196</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40426,7 +40426,7 @@
         <v>45604</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         <v>45218.60378472223</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40540,7 +40540,7 @@
         <v>45168</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40597,7 +40597,7 @@
         <v>45314.63751157407</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40654,7 +40654,7 @@
         <v>45036</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40711,7 +40711,7 @@
         <v>45769.54868055556</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40768,7 +40768,7 @@
         <v>45553.51680555556</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40825,7 +40825,7 @@
         <v>45110</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>45621</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>45643.5005787037</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45708.56193287037</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44489</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>45566.88059027777</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41172,7 +41172,7 @@
         <v>44995.4984375</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41229,7 +41229,7 @@
         <v>45103.49568287037</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41286,7 +41286,7 @@
         <v>45103</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41343,7 +41343,7 @@
         <v>45099</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41400,7 +41400,7 @@
         <v>45572</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>45736.39861111111</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41514,7 +41514,7 @@
         <v>44488</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41571,7 +41571,7 @@
         <v>45709.46929398148</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41628,7 +41628,7 @@
         <v>45113</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41685,7 +41685,7 @@
         <v>45348.83976851852</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45028.37586805555</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41804,7 +41804,7 @@
         <v>45754</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41861,7 +41861,7 @@
         <v>45740</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41918,7 +41918,7 @@
         <v>45119.38265046296</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41975,7 +41975,7 @@
         <v>45468.59137731481</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42037,7 +42037,7 @@
         <v>45469.6294212963</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42094,7 +42094,7 @@
         <v>45469.6204050926</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42151,7 +42151,7 @@
         <v>45691</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42208,7 +42208,7 @@
         <v>45782.44434027778</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42265,7 +42265,7 @@
         <v>45782.46638888889</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42327,7 +42327,7 @@
         <v>45728.39811342592</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42384,7 +42384,7 @@
         <v>45525.70791666667</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42441,7 +42441,7 @@
         <v>45233</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42498,7 +42498,7 @@
         <v>45224</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42555,7 +42555,7 @@
         <v>45474.51827546296</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42612,7 +42612,7 @@
         <v>45572.45870370371</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42669,7 +42669,7 @@
         <v>45708.58996527778</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42726,7 +42726,7 @@
         <v>45632.75246527778</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42783,7 +42783,7 @@
         <v>45754.60855324074</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42840,7 +42840,7 @@
         <v>45792.60909722222</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42902,7 +42902,7 @@
         <v>45796.28685185185</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42959,7 +42959,7 @@
         <v>45797.45616898148</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43016,7 +43016,7 @@
         <v>45204</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43073,7 +43073,7 @@
         <v>45799.39888888889</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43130,7 +43130,7 @@
         <v>45526.89289351852</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43187,7 +43187,7 @@
         <v>45408.45277777778</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43244,7 +43244,7 @@
         <v>45805</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43301,7 +43301,7 @@
         <v>45811.54190972223</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43358,7 +43358,7 @@
         <v>45812.36875</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>

--- a/Översikt OSKARSHAMN.xlsx
+++ b/Översikt OSKARSHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44984</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>45923</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         <v>45170</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>45439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>45769</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45722.66604166666</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45460</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44952</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>45384.62541666667</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45715.72884259259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>45392.54690972222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>45691</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45240.38040509259</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>45175</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>45468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>45701.583125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>44340</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>45701.63065972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>45371.85241898148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44574</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>44786</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>44552</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>45873</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>45012.62950231481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>46063</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>45708.47785879629</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>44593</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>44568.37201388889</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>45769.58797453704</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>45446</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>45568</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>45218</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>45113</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44252</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>44406</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44411.66887731481</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44427</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>44343</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>45884.64704861111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>45834.63185185185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>45581.63248842592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>44820</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>45833.45934027778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>45908.52792824074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>45839.55894675926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>45034</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45224.44094907407</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>45530.38290509259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>44342</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>45098.56957175926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>45330</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>45987</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>45700.71092592592</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>45540.50771990741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>45175</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>45811.51012731482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44803.67887731481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44490.37232638889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44489</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44431.84994212963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44350</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>44315</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44308.39359953703</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44620</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44487.86196759259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         <v>44778</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>44418</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>44489</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>44426</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>44426</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>44613</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>44866.57854166667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>44515.62953703704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44546.80212962963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44603</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44580</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44851.52685185185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>44516</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44313</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44443</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44761</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44855</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44588.89677083334</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44315</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44806</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44477</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>44447</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>44539.87791666666</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>44539.86778935185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>44546.80259259259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44483.44872685185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>44428</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>44446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>44866.59038194444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>44497.45600694444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>44711.52076388889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>44573</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>44544</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>44389.34473379629</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>44307.35981481482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>44768.45408564815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>44308.37342592593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>44704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>44488</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>44477</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         <v>44621.80555555555</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>44596.27380787037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>44712.65646990741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>44869.53516203703</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>44711.46028935185</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>44302</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44348</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44593</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>44865</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44399</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44596</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44712.65084490741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44251</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44685.48917824074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44593</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44515.62549768519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44756.58146990741</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44756.60337962963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44791</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>44789</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44818</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>44818</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44627</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>44965</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44503.73760416666</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44656.73034722222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>45580.40394675926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>45580.43162037037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>45531</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>45267.81273148148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>45267.8203125</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>45267</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45448</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45448</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45567.66055555556</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44756.89907407408</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44978.39695601852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45728.50771990741</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45408.6706712963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44743</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44973</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45364.50273148148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44754</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>45051.67450231482</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>45110</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>45110.47371527777</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44573</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44749.77997685185</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>45729.45061342593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>45348.84033564815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>45348.84243055555</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>45348.84297453704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>45432.5475</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>44365</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>44995.56314814815</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>45372.60196759259</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>45489.9324537037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>45490.63440972222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>45721.47692129629</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>45349.67712962963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
         <v>45691.58703703704</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         <v>44818</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>45022</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12400,7 +12400,7 @@
         <v>44951</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
         <v>45253.87519675926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>44917.35297453704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>44440</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>44963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>45019</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>45198</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>45754.63101851852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>45482.97067129629</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>45294.67804398148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>45204.579375</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>45256.86208333333</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45163.50626157408</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>45147</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>45408.68166666666</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>45629.65581018518</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>45212.75959490741</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45207</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>45610.44954861111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>45385.65364583334</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>45314.62943287037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>45384.88273148148</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>45384.88486111111</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>45411.36979166666</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44664</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>45147</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>44663</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>45818.54527777778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>44994.46226851852</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>45714.85896990741</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>45818</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>45223.58754629629</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>45323</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>45888.58804398148</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>45825.35740740741</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>45330</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>45043.35755787037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>45888.46310185185</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>45888.46814814815</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>45754.24792824074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>45784</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>45825.36836805556</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>45825.47642361111</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>45110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>45359.3833912037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>45754</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45168</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45617.87493055555</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>45254.43631944444</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44602.92667824074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>45208.38356481482</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>45895.46616898148</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>45895.50965277778</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>45827.35274305556</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>45895.47204861111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>45805.69674768519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>45204.60113425926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>45894.5816550926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>45894.62370370371</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>45832.43137731482</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>45832.46736111111</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>45832.42618055556</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>45832.43704861111</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>45832.45224537037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>45369.46770833333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>45369.47578703704</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>45832.58109953703</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>45832.45052083334</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>45832.58603009259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>45897.56394675926</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16410,7 +16410,7 @@
         <v>45021</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16467,7 +16467,7 @@
         <v>44817</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16524,7 +16524,7 @@
         <v>45833.59315972222</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16581,7 +16581,7 @@
         <v>45784</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16638,7 +16638,7 @@
         <v>45833.49329861111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16695,7 +16695,7 @@
         <v>45212</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16752,7 +16752,7 @@
         <v>45901.66758101852</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16809,7 +16809,7 @@
         <v>44711.45408564815</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         <v>45792.68268518519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16923,7 +16923,7 @@
         <v>45901.67497685185</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>45691.53809027778</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         <v>45784</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         <v>45792.67280092592</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17151,7 +17151,7 @@
         <v>44818</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17208,7 +17208,7 @@
         <v>45240</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45792.65657407408</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>45805.58600694445</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>45113</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>45838.57329861111</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17550,7 +17550,7 @@
         <v>45902.94496527778</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17607,7 +17607,7 @@
         <v>45811.64633101852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>45523.62600694445</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>45096</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>45905.61246527778</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>45904.5440162037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>45904.60271990741</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>45908.35832175926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>45908.46075231482</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>45736.40155092593</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>45908.52967592593</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>45908.43879629629</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>45908.47855324074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>45909.59903935185</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>45909.61186342593</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>45831.33773148148</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>45337</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>45909.60825231481</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>45840.48972222222</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>45034</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44914.54905092593</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44914.59553240741</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>45601</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>45911.52084490741</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>45113</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>45645.45909722222</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44452</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>45274</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>45007.34189814814</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>45916.61013888889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>45224.44980324074</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44836.68821759259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>45617.87357638889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>45254.37971064815</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44467.68127314815</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>44963</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>45216</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>45560.40998842593</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>45923.58810185185</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>44963.63244212963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>44970.63949074074</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>45908</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>45929.44982638889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20011,7 +20011,7 @@
         <v>45873.44460648148</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>45908</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>45908</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20182,7 +20182,7 @@
         <v>45929.65825231482</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
         <v>44455.39767361111</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>45929.62671296296</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>45929.63778935185</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>45929.65375</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>45929.65623842592</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45929.62909722222</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45931.39258101852</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45931.3561574074</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45931.48358796296</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45931.50462962963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45929.75799768518</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45931.56587962963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45530.38103009259</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>45931.51418981481</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>45931.52960648148</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>45931</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>45931.54503472222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>45929.75545138889</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>45252.65233796297</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>45931.45490740741</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>45930.50012731482</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>45930.56650462963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>45930.48523148148</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>45930.48887731481</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>45930.48167824074</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45931.56813657407</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>45873.45185185185</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>45931.49530092593</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>45929.75690972222</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>45931.56197916667</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21959,7 +21959,7 @@
         <v>44984.76328703704</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22016,7 +22016,7 @@
         <v>45196.87342592593</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>44342</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>44564.60331018519</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>44395.72300925926</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>45589.44753472223</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>45756.54372685185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
         <v>45280.85986111111</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22420,7 +22420,7 @@
         <v>45939.63331018519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
         <v>45834.67012731481</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22534,7 +22534,7 @@
         <v>44443</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>45697.94736111111</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>44488</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45113.64251157407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>45209.5540625</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45769</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45769</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44378.82424768519</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>45873</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44377</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>45944.64350694444</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>45113.73296296296</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>45884.35498842593</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>45831</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44980.8393287037</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44994.47293981481</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>45697.94650462963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23508,7 +23508,7 @@
         <v>45371.85089120371</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>45371.85148148148</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>45371.85366898148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>45209</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>45950</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>45463.40362268518</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44977</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>45950</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>45075</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>45953</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>45953</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>45469.51068287037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>44613</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>45957</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>44539.86905092592</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>45258.63960648148</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24440,7 +24440,7 @@
         <v>45769.55505787037</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24497,7 +24497,7 @@
         <v>45224.42729166667</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24554,7 +24554,7 @@
         <v>45961.55065972222</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>44951.64454861111</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24668,7 +24668,7 @@
         <v>45960.38200231481</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24725,7 +24725,7 @@
         <v>45965.43626157408</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>45280.85377314815</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24839,7 +24839,7 @@
         <v>45280.86780092592</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>45964</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>45964.55121527778</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>45967</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25072,7 +25072,7 @@
         <v>44978.76613425926</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>45412.44052083333</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         <v>45968</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>45975</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>45975</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25357,7 +25357,7 @@
         <v>45580.42582175926</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25414,7 +25414,7 @@
         <v>45268.36550925926</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25476,7 +25476,7 @@
         <v>45979.66076388889</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         <v>45979.64767361111</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25590,7 +25590,7 @@
         <v>45978.51693287037</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         <v>45041.69135416667</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25704,7 +25704,7 @@
         <v>45742</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25761,7 +25761,7 @@
         <v>44837.43305555556</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>44987</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>44621</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>45320</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44917</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>45433</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>45448.51262731481</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>45372</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44547</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>45985.64153935185</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>45985.62451388889</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>45985.62953703704</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26450,7 +26450,7 @@
         <v>44945</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26507,7 +26507,7 @@
         <v>45204.56902777778</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26564,7 +26564,7 @@
         <v>44987.48240740741</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>45985.64751157408</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>44865</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>45526.77546296296</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>45987</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>45987</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>45435.42290509259</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>45987</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>45986</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>45986</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>45987</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>45989.44925925926</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>45989.56349537037</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27310,7 +27310,7 @@
         <v>45989.57084490741</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>45523.6602662037</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>45603.54962962963</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>44621.9492824074</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>45373.70664351852</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>45098</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>46035.6003125</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>45208.3799537037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>46035.61033564815</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>44981.45752314815</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27880,7 +27880,7 @@
         <v>45695.39277777778</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27937,7 +27937,7 @@
         <v>46035.45234953704</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>44980.57952546296</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>45610.41706018519</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>45610.45115740741</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>45610.45636574074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>45610.45759259259</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>44995.54377314815</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>44630</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>44973</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>45323</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>45002</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28569,7 +28569,7 @@
         <v>45002</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         <v>45092</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>45097</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>45012.68758101852</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>44455</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         <v>45369.47645833333</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28911,7 +28911,7 @@
         <v>44995.5321412037</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44820</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>46042.51072916666</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29082,7 +29082,7 @@
         <v>46042.52923611111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29139,7 +29139,7 @@
         <v>46042.51363425926</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29196,7 +29196,7 @@
         <v>45999.97754629629</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29253,7 +29253,7 @@
         <v>45999.99611111111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>46000.00444444444</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>46001.45331018518</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29424,7 +29424,7 @@
         <v>46001.45693287037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>45099</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         <v>44917</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29595,7 +29595,7 @@
         <v>46001.46215277778</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29652,7 +29652,7 @@
         <v>46001.58747685186</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         <v>45999.84392361111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29771,7 +29771,7 @@
         <v>46043.6021412037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29828,7 +29828,7 @@
         <v>45999.87527777778</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>45999.87908564815</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29952,7 +29952,7 @@
         <v>45999.88106481481</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30014,7 +30014,7 @@
         <v>45999.98979166667</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30071,7 +30071,7 @@
         <v>46042.63504629629</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30128,7 +30128,7 @@
         <v>46001.47655092592</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30185,7 +30185,7 @@
         <v>45999.83951388889</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30247,7 +30247,7 @@
         <v>45999.84214120371</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>45999.87179398148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30371,7 +30371,7 @@
         <v>45999.98384259259</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30428,7 +30428,7 @@
         <v>45999.9933912037</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30485,7 +30485,7 @@
         <v>46042.64681712963</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30542,7 +30542,7 @@
         <v>45198.40052083333</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30599,7 +30599,7 @@
         <v>44915.65098379629</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>46045.61725694445</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30713,7 +30713,7 @@
         <v>45531</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30770,7 +30770,7 @@
         <v>44749.77538194445</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44621.67178240741</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>45448</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30941,7 +30941,7 @@
         <v>45110</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>45369.47766203704</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>45075.59990740741</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>45075</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31169,7 +31169,7 @@
         <v>46043.96223379629</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31226,7 +31226,7 @@
         <v>46044.69398148148</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31283,7 +31283,7 @@
         <v>45483.4747337963</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31340,7 +31340,7 @@
         <v>45695.39430555556</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31397,7 +31397,7 @@
         <v>45695.39592592593</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>46007.44689814815</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31511,7 +31511,7 @@
         <v>46007.43628472222</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31568,7 +31568,7 @@
         <v>44251</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31625,7 +31625,7 @@
         <v>45182.380625</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31682,7 +31682,7 @@
         <v>46007.45577546296</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31739,7 +31739,7 @@
         <v>46049.66416666667</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31796,7 +31796,7 @@
         <v>44551.46303240741</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31853,7 +31853,7 @@
         <v>45267.81482638889</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>45267.82079861111</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>46007</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>45617.87163194444</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32096,7 +32096,7 @@
         <v>45110</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32153,7 +32153,7 @@
         <v>44505</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32210,7 +32210,7 @@
         <v>46007</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32267,7 +32267,7 @@
         <v>45567.65388888889</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32324,7 +32324,7 @@
         <v>44547.35026620371</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>46007.44221064815</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>45406.66635416666</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>45407.35842592592</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>46050.73391203704</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>45056.65377314815</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>46009.39746527778</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32723,7 +32723,7 @@
         <v>45644.52768518519</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32780,7 +32780,7 @@
         <v>46051.46449074074</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32837,7 +32837,7 @@
         <v>45090.69114583333</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32894,7 +32894,7 @@
         <v>45215</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32951,7 +32951,7 @@
         <v>46009.67722222222</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33008,7 +33008,7 @@
         <v>45432.89364583333</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>46051.4155787037</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>46009.46263888889</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>46009.56550925926</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33241,7 +33241,7 @@
         <v>44755.59465277778</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33298,7 +33298,7 @@
         <v>45601.60582175926</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         <v>45113.45962962963</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33412,7 +33412,7 @@
         <v>44348.51484953704</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33469,7 +33469,7 @@
         <v>45240.65537037037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33526,7 +33526,7 @@
         <v>45687.66491898148</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33583,7 +33583,7 @@
         <v>44494</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33640,7 +33640,7 @@
         <v>46009</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33697,7 +33697,7 @@
         <v>46009</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33754,7 +33754,7 @@
         <v>44879</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33811,7 +33811,7 @@
         <v>46057.41944444444</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33868,7 +33868,7 @@
         <v>45526.77328703704</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>45526.77930555555</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33992,7 +33992,7 @@
         <v>44951.6371412037</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34049,7 +34049,7 @@
         <v>45386</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34106,7 +34106,7 @@
         <v>45348.83865740741</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34168,7 +34168,7 @@
         <v>44908</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34225,7 +34225,7 @@
         <v>45700.69986111111</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34282,7 +34282,7 @@
         <v>46058</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34339,7 +34339,7 @@
         <v>46059.46849537037</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34396,7 +34396,7 @@
         <v>46058</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34453,7 +34453,7 @@
         <v>46058</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34510,7 +34510,7 @@
         <v>45432.8953587963</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34572,7 +34572,7 @@
         <v>46063.63849537037</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34629,7 +34629,7 @@
         <v>44713</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34686,7 +34686,7 @@
         <v>45691.5424537037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34743,7 +34743,7 @@
         <v>45091</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34800,7 +34800,7 @@
         <v>45702.42196759259</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34857,7 +34857,7 @@
         <v>45763.53839120371</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34914,7 +34914,7 @@
         <v>45701.37699074074</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34971,7 +34971,7 @@
         <v>44900</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35028,7 +35028,7 @@
         <v>45224.44408564815</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35085,7 +35085,7 @@
         <v>45341.80892361111</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35142,7 +35142,7 @@
         <v>46063</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35199,7 +35199,7 @@
         <v>44539.87341435185</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35261,7 +35261,7 @@
         <v>46026</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35318,7 +35318,7 @@
         <v>44711</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35375,7 +35375,7 @@
         <v>44608</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35432,7 +35432,7 @@
         <v>44624.49346064815</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35489,7 +35489,7 @@
         <v>45256.87429398148</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35546,7 +35546,7 @@
         <v>44403</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35603,7 +35603,7 @@
         <v>45195</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35660,7 +35660,7 @@
         <v>44620.87751157407</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35717,7 +35717,7 @@
         <v>46069</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35774,7 +35774,7 @@
         <v>44461</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35831,7 +35831,7 @@
         <v>46069</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35888,7 +35888,7 @@
         <v>45204.55690972223</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35945,7 +35945,7 @@
         <v>45379.66810185185</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36002,7 +36002,7 @@
         <v>46030.53576388889</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>46030.34734953703</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36116,7 +36116,7 @@
         <v>46030.35164351852</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>45560.49635416667</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>45736.49748842593</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>45614.3915625</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44818</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>45022.55422453704</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>45240.37828703703</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36515,7 +36515,7 @@
         <v>45691.54719907408</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36572,7 +36572,7 @@
         <v>44483</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36629,7 +36629,7 @@
         <v>45169</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36686,7 +36686,7 @@
         <v>44585.98170138889</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36743,7 +36743,7 @@
         <v>45372.56440972222</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36800,7 +36800,7 @@
         <v>45224.41850694444</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>45317</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44865.60001157408</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>45056.64768518518</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>44446</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
         <v>45526.77739583333</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37147,7 +37147,7 @@
         <v>45448.52702546296</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>45448.61481481481</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37261,7 +37261,7 @@
         <v>45015</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37318,7 +37318,7 @@
         <v>45329</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37375,7 +37375,7 @@
         <v>44356</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37432,7 +37432,7 @@
         <v>45240</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37489,7 +37489,7 @@
         <v>45240</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37546,7 +37546,7 @@
         <v>44253</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         <v>45252</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37660,7 +37660,7 @@
         <v>45244</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37717,7 +37717,7 @@
         <v>45098.64069444445</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37774,7 +37774,7 @@
         <v>45604</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>45580.42840277778</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37888,7 +37888,7 @@
         <v>45371.85319444445</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37950,7 +37950,7 @@
         <v>45377</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38007,7 +38007,7 @@
         <v>45644.49186342592</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38064,7 +38064,7 @@
         <v>45625.59788194444</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38121,7 +38121,7 @@
         <v>44733.64194444445</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38178,7 +38178,7 @@
         <v>45385.65076388889</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38235,7 +38235,7 @@
         <v>45218.56766203704</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38292,7 +38292,7 @@
         <v>45092.40744212963</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38349,7 +38349,7 @@
         <v>45034</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38406,7 +38406,7 @@
         <v>45490.61532407408</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38463,7 +38463,7 @@
         <v>45603.45233796296</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38520,7 +38520,7 @@
         <v>44490</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38577,7 +38577,7 @@
         <v>45113</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38634,7 +38634,7 @@
         <v>45244.36743055555</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38691,7 +38691,7 @@
         <v>45267</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38753,7 +38753,7 @@
         <v>45720.65146990741</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38810,7 +38810,7 @@
         <v>45519.58827546296</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38867,7 +38867,7 @@
         <v>45372.58623842592</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38924,7 +38924,7 @@
         <v>45372</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38981,7 +38981,7 @@
         <v>45012</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39038,7 +39038,7 @@
         <v>45726.82771990741</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39095,7 +39095,7 @@
         <v>45531</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39152,7 +39152,7 @@
         <v>45098.52928240741</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39209,7 +39209,7 @@
         <v>45735.36414351852</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         <v>45267.81348379629</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39328,7 +39328,7 @@
         <v>45267</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39390,7 +39390,7 @@
         <v>45391.32674768518</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39447,7 +39447,7 @@
         <v>45379.69200231481</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39504,7 +39504,7 @@
         <v>45490.636875</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39561,7 +39561,7 @@
         <v>44980.61068287037</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39618,7 +39618,7 @@
         <v>45105</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39675,7 +39675,7 @@
         <v>45096.46872685185</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39732,7 +39732,7 @@
         <v>45041.68686342592</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39789,7 +39789,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39846,7 +39846,7 @@
         <v>45566.88295138889</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39908,7 +39908,7 @@
         <v>45405.52</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39965,7 +39965,7 @@
         <v>45405.52430555555</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40022,7 +40022,7 @@
         <v>45531</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40079,7 +40079,7 @@
         <v>44865</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40141,7 +40141,7 @@
         <v>45258.62900462963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40198,7 +40198,7 @@
         <v>45539.56</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40255,7 +40255,7 @@
         <v>45490.64616898148</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40312,7 +40312,7 @@
         <v>45245.35430555556</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40369,7 +40369,7 @@
         <v>45196</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40426,7 +40426,7 @@
         <v>45604</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         <v>45218.60378472223</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40540,7 +40540,7 @@
         <v>45168</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40597,7 +40597,7 @@
         <v>45314.63751157407</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40654,7 +40654,7 @@
         <v>45036</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40711,7 +40711,7 @@
         <v>45769.54868055556</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40768,7 +40768,7 @@
         <v>45553.51680555556</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40825,7 +40825,7 @@
         <v>45110</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>45621</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>45643.5005787037</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45708.56193287037</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44489</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>45566.88059027777</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41172,7 +41172,7 @@
         <v>44995.4984375</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41229,7 +41229,7 @@
         <v>45103.49568287037</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41286,7 +41286,7 @@
         <v>45103</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41343,7 +41343,7 @@
         <v>45099</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41400,7 +41400,7 @@
         <v>45572</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>45736.39861111111</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41514,7 +41514,7 @@
         <v>44488</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41571,7 +41571,7 @@
         <v>45709.46929398148</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41628,7 +41628,7 @@
         <v>45113</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41685,7 +41685,7 @@
         <v>45348.83976851852</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45028.37586805555</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41804,7 +41804,7 @@
         <v>45754</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41861,7 +41861,7 @@
         <v>45740</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41918,7 +41918,7 @@
         <v>45119.38265046296</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41975,7 +41975,7 @@
         <v>45468.59137731481</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42037,7 +42037,7 @@
         <v>45469.6294212963</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42094,7 +42094,7 @@
         <v>45469.6204050926</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42151,7 +42151,7 @@
         <v>45691</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42208,7 +42208,7 @@
         <v>45782.44434027778</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42265,7 +42265,7 @@
         <v>45782.46638888889</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42327,7 +42327,7 @@
         <v>45728.39811342592</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42384,7 +42384,7 @@
         <v>45525.70791666667</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42441,7 +42441,7 @@
         <v>45233</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42498,7 +42498,7 @@
         <v>45224</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42555,7 +42555,7 @@
         <v>45474.51827546296</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42612,7 +42612,7 @@
         <v>45572.45870370371</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42669,7 +42669,7 @@
         <v>45708.58996527778</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42726,7 +42726,7 @@
         <v>45632.75246527778</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42783,7 +42783,7 @@
         <v>45754.60855324074</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42840,7 +42840,7 @@
         <v>45792.60909722222</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42902,7 +42902,7 @@
         <v>45796.28685185185</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42959,7 +42959,7 @@
         <v>45797.45616898148</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43016,7 +43016,7 @@
         <v>45204</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43073,7 +43073,7 @@
         <v>45799.39888888889</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43130,7 +43130,7 @@
         <v>45526.89289351852</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43187,7 +43187,7 @@
         <v>45408.45277777778</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43244,7 +43244,7 @@
         <v>45805</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43301,7 +43301,7 @@
         <v>45811.54190972223</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43358,7 +43358,7 @@
         <v>45812.36875</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>

--- a/Översikt OSKARSHAMN.xlsx
+++ b/Översikt OSKARSHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44984</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>45170</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>45923</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>45439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>45769</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45722.66604166666</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45460</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44952</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>45384.62541666667</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45715.72884259259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>45691</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>45240.38040509259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45392.54690972222</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>45468</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45175</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>45701.63065972222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>45701.583125</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>44340</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>45371.85241898148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44574</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>45873</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>44552</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>45012.62950231481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>44786</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>45708.47785879629</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>46063</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>46077.7487962963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>44593</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>45568</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>45218</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44568.37201388889</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>45769.58797453704</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>45446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44406</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>44411.66887731481</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>44427</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>44343</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44820</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>44858</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>45530.38290509259</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>45884.64704861111</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>45834.63185185185</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>45811.51012731482</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45581.63248842592</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>45908.52792824074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45833.45934027778</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>45839.55894675926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>45700.71092592592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>45098.56957175926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>45987</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>45224.44094907407</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44342</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>45034</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>45330</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>45540.50771990741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>45175</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>44803.67887731481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>44490.37232638889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>44489</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44431.84994212963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>44350</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>44315</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>44308.39359953703</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>44620</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>44487.86196759259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>44778</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>44418</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44489</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>44426</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>44426</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>44613</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>44515.62953703704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>44866.57854166667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44546.80212962963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44603</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>44580</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>44851.52685185185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>44516</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
         <v>44313</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>44443</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>44855</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>44761</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>44588.89677083334</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7410,7 +7410,7 @@
         <v>44315</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         <v>44806</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7524,7 +7524,7 @@
         <v>44477</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>44447</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44539.86778935185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>44539.87791666666</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>44546.80259259259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44483.44872685185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44428</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44866.59038194444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44497.45600694444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44711.52076388889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44573</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>44544</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44389.34473379629</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44307.35981481482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44768.45408564815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>44308.37342592593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>44704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>44488</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>44477</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>44621.80555555555</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44596.27380787037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44712.65646990741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44869.53516203703</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44711.46028935185</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44348</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44302</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44593</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44865</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>44399</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>44596</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>44713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>44712.65084490741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44685.48917824074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44515.62549768519</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44756.58146990741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44756.60337962963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44791</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44789</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44818</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44818</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44627</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44817</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>45691.5424537037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>45377</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44837.43305555556</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>45105</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>45212</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>45412.44052083333</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>45526.77930555555</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45224.44408564815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>45729.45061342593</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>44455.39767361111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>44455</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44820</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>45406.66635416666</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44348.51484953704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>45407.35842592592</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>45097</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>44356</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>45216</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>45386</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>45002</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>45371.85089120371</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11294,7 +11294,7 @@
         <v>45371.85148148148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>45371.85366898148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44440</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44378.82424768519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>45258.63960648148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44963.63244212963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>45359.3833912037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>45323</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>45490.61532407408</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>45314.62943287037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>45432.89364583333</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>44865.60001157408</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>45483.4747337963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>44461</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>45110</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>45490.63440972222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>45530.38103009259</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>44602.92667824074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12402,7 +12402,7 @@
         <v>45482.97067129629</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>45012.68758101852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12516,7 +12516,7 @@
         <v>45489.9324537037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         <v>44981.45752314815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12630,7 +12630,7 @@
         <v>44984.76328703704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12687,7 +12687,7 @@
         <v>45531</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12744,7 +12744,7 @@
         <v>44908</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>45721.47692129629</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12858,7 +12858,7 @@
         <v>44656.73034722222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44914.59553240741</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>45280.85986111111</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44490</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44994.46226851852</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44914.54905092593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>45805</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>45884.35498842593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44995.54377314815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>45888.58804398148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44539.87341435185</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>45490.636875</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>45218.60378472223</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>45617.87357638889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>45691.54719907408</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>45888.46310185185</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>45888.46814814815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>45490.64616898148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>45784</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>45754</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>45812.36875</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>45811.54190972223</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>45572</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>45432.5475</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>45022.55422453704</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44951</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>45818</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>45894.5816550926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>45894.62370370371</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>45818.54527777778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>45567.66055555556</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>45560.49635416667</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>45709.46929398148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>45252</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>44630</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>44980.57952546296</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>44467.68127314815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>45372.58623842592</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>45372</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>45895.46616898148</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>45895.50965277778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45895.47204861111</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>45825.47642361111</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>45253.87519675926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>45897.56394675926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>45825.36836805556</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>45825.35740740741</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>45827.35274305556</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>45833.49329861111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>45811.64633101852</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>45901.67497685185</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15780,7 +15780,7 @@
         <v>45526.77739583333</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>45901.66758101852</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>45523.62600694445</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>45832.43704861111</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>45448</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>45784</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>45784</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>45805.58600694445</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>45832.42618055556</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>45832.46736111111</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>45904.60271990741</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>45832.45224537037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>45805.69674768519</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>45268.36550925926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16588,7 +16588,7 @@
         <v>45832.45052083334</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16645,7 +16645,7 @@
         <v>45832.58603009259</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16702,7 +16702,7 @@
         <v>45182.380625</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>45832.58109953703</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16816,7 +16816,7 @@
         <v>45904.5440162037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>45832.43137731482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>45902.94496527778</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>45905.61246527778</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>45908.43879629629</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>45908.47855324074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>45792.65657407408</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17215,7 +17215,7 @@
         <v>45691.53809027778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         <v>45580.40394675926</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17329,7 +17329,7 @@
         <v>45833.59315972222</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17386,7 +17386,7 @@
         <v>45908.35832175926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         <v>45792.67280092592</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17500,7 +17500,7 @@
         <v>45792.68268518519</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17557,7 +17557,7 @@
         <v>45695.39430555556</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>45695.39592592593</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>45908.46075231482</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44713</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>45553.51680555556</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>45908.52967592593</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>45603.45233796296</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>45601.60582175926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>45604</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>45113.45962962963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>45909.59903935185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>45909.61186342593</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>45838.57329861111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45831.33773148148</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>45840.48972222222</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>45909.60825231481</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>45244.36743055555</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>45099</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>45736.40155092593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>45603.54962962963</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>45614.3915625</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>45090.69114583333</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>45244</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44987</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>45645.45909722222</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>45911.52084490741</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44970.63949074074</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
         <v>45916.61013888889</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>45103.49568287037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19215,7 +19215,7 @@
         <v>45103</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>45385.65076388889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>45267</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44613</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>45113.73296296296</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>45329</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>45034</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>45923.58810185185</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>44973</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45908</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>45908</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>45908</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>45930.48523148148</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19961,7 +19961,7 @@
         <v>45930.48887731481</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20018,7 +20018,7 @@
         <v>45929.75799768518</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20075,7 +20075,7 @@
         <v>45736.39861111111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20132,7 +20132,7 @@
         <v>45929.62671296296</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20189,7 +20189,7 @@
         <v>45929.62909722222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20246,7 +20246,7 @@
         <v>45929.75545138889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20303,7 +20303,7 @@
         <v>45930.48167824074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20360,7 +20360,7 @@
         <v>45929.75690972222</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20417,7 +20417,7 @@
         <v>45930.56650462963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>45929.44982638889</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>45930.50012731482</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>45929.63778935185</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>45929.65375</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>45929.65623842592</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>45929.65825231482</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         <v>45408.6706712963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>44980.61068287037</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>45931.56813657407</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
         <v>45931.50462962963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21044,7 +21044,7 @@
         <v>45873.44460648148</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>45931.49530092593</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21158,7 +21158,7 @@
         <v>45873.45185185185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21215,7 +21215,7 @@
         <v>45931.3561574074</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>45726.82771990741</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>45625.59788194444</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>45931.56587962963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         <v>44978.39695601852</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>45931.54503472222</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>45756.54372685185</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44403</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>45931.39258101852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>45931.48358796296</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>45931.51418981481</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>45931.52960648148</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>45931</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44342</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44663</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>45931.45490740741</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>45931.56197916667</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44818</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44365</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44377</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>45267.81348379629</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22417,7 +22417,7 @@
         <v>45267</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>45714.85896990741</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>45041.68686342592</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>45012</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>45092</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45110</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>45834.67012731481</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44733.64194444445</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>45110</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>45267.81482638889</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>45267.82079861111</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         <v>45245.35430555556</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23116,7 +23116,7 @@
         <v>45198</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>45256.86208333333</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>45939.63331018519</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>45320</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45769.54868055556</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>45769.55505787037</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44443</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>45944.64350694444</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>44395.72300925926</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>45769</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45056.65377314815</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45769</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45873</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>45831</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23914,7 +23914,7 @@
         <v>45950</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23971,7 +23971,7 @@
         <v>45950</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24028,7 +24028,7 @@
         <v>44452</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24085,7 +24085,7 @@
         <v>44900</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24142,7 +24142,7 @@
         <v>45953</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>45252.65233796297</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>44836.68821759259</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>45953</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>45435.42290509259</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>44915.65098379629</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>45098.52928240741</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>45092.40744212963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>45369.46770833333</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>45369.47578703704</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>45957</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>45208.3799537037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>45002</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44489</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>45280.85377314815</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>45280.86780092592</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>45960.38200231481</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>45391.32674768518</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>45240</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>45240</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>45964</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>45379.66810185185</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45147</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45964.55121527778</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>45961.55065972222</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>45371.85319444445</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25634,7 +25634,7 @@
         <v>45965.43626157408</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25691,7 +25691,7 @@
         <v>44754</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25748,7 +25748,7 @@
         <v>45968</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>45967</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>45519.58827546296</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25919,7 +25919,7 @@
         <v>45096.46872685185</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25976,7 +25976,7 @@
         <v>44539.86905092592</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>44995.4984375</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>44995.5321412037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26152,7 +26152,7 @@
         <v>44547.35026620371</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26209,7 +26209,7 @@
         <v>45373.70664351852</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26266,7 +26266,7 @@
         <v>44965</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26323,7 +26323,7 @@
         <v>45978.51693287037</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26380,7 +26380,7 @@
         <v>45975</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26437,7 +26437,7 @@
         <v>45975</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26494,7 +26494,7 @@
         <v>45643.5005787037</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26551,7 +26551,7 @@
         <v>45979.64767361111</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26608,7 +26608,7 @@
         <v>45168</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26665,7 +26665,7 @@
         <v>45411.36979166666</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26722,7 +26722,7 @@
         <v>45617.87163194444</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>45979.66076388889</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44621.67178240741</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>45702.42196759259</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>45043.35755787037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>45022</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>45601</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>45985.64751157408</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45580.42582175926</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>44494</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45985.64153935185</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>44573</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45985.62451388889</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45985.62953703704</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45348.83865740741</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45580.42840277778</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45987</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45987</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45754.24792824074</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45223.58754629629</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45987</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45075</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45075</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45204.60113425926</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45987</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45986</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45986</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>44551.46303240741</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45989.57084490741</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28385,7 +28385,7 @@
         <v>45989.44925925926</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28442,7 +28442,7 @@
         <v>45989.56349537037</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28499,7 +28499,7 @@
         <v>45644.52768518519</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28556,7 +28556,7 @@
         <v>45198.40052083333</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>45610.44954861111</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45999.84392361111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45999.87527777778</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28794,7 +28794,7 @@
         <v>45999.87908564815</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28856,7 +28856,7 @@
         <v>45999.88106481481</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28918,7 +28918,7 @@
         <v>46042.63504629629</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28975,7 +28975,7 @@
         <v>46042.64681712963</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29032,7 +29032,7 @@
         <v>45999.97754629629</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29089,7 +29089,7 @@
         <v>45999.99611111111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29146,7 +29146,7 @@
         <v>46000.00444444444</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29203,7 +29203,7 @@
         <v>45567.65388888889</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>45999.83951388889</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29322,7 +29322,7 @@
         <v>45999.84214120371</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>45999.98979166667</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29441,7 +29441,7 @@
         <v>46042.51363425926</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29498,7 +29498,7 @@
         <v>45999.98384259259</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29555,7 +29555,7 @@
         <v>45999.9933912037</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29612,7 +29612,7 @@
         <v>45091</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29669,7 +29669,7 @@
         <v>46042.51072916666</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29726,7 +29726,7 @@
         <v>46042.52923611111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29783,7 +29783,7 @@
         <v>46001.47655092592</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29840,7 +29840,7 @@
         <v>44547</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29897,7 +29897,7 @@
         <v>45384.88273148148</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29959,7 +29959,7 @@
         <v>45384.88486111111</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>45735.36414351852</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>45208.38356481482</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>46001.46215277778</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30192,7 +30192,7 @@
         <v>45385.65364583334</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30249,7 +30249,7 @@
         <v>46043.6021412037</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         <v>45691.58703703704</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30363,7 +30363,7 @@
         <v>45999.87179398148</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30425,7 +30425,7 @@
         <v>46001.58747685186</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         <v>44608</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30539,7 +30539,7 @@
         <v>46044.69398148148</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30596,7 +30596,7 @@
         <v>45708.56193287037</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30653,7 +30653,7 @@
         <v>46043.96223379629</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30710,7 +30710,7 @@
         <v>45204.579375</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30767,7 +30767,7 @@
         <v>46001.45331018518</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30824,7 +30824,7 @@
         <v>46001.45693287037</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30881,7 +30881,7 @@
         <v>46045.61725694445</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30938,7 +30938,7 @@
         <v>45207</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30995,7 +30995,7 @@
         <v>45697.94650462963</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31052,7 +31052,7 @@
         <v>45531</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>45147</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31166,7 +31166,7 @@
         <v>45687.66491898148</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31223,7 +31223,7 @@
         <v>45254.37971064815</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31280,7 +31280,7 @@
         <v>46050.73391203704</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31337,7 +31337,7 @@
         <v>44711</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31394,7 +31394,7 @@
         <v>45526.77546296296</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31456,7 +31456,7 @@
         <v>46007.44221064815</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31513,7 +31513,7 @@
         <v>45098</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31570,7 +31570,7 @@
         <v>46007</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         <v>46049.66416666667</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31684,7 +31684,7 @@
         <v>46007.44689814815</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31741,7 +31741,7 @@
         <v>46007</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31798,7 +31798,7 @@
         <v>46007.45577546296</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31855,7 +31855,7 @@
         <v>46007.43628472222</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31912,7 +31912,7 @@
         <v>44818</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31969,7 +31969,7 @@
         <v>46051.4155787037</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32026,7 +32026,7 @@
         <v>45697.94736111111</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32083,7 +32083,7 @@
         <v>45224.41850694444</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32140,7 +32140,7 @@
         <v>45113</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32197,7 +32197,7 @@
         <v>46009.46263888889</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32254,7 +32254,7 @@
         <v>46009.56550925926</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32311,7 +32311,7 @@
         <v>46051.46449074074</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32368,7 +32368,7 @@
         <v>46009.39746527778</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32425,7 +32425,7 @@
         <v>46009.67722222222</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32482,7 +32482,7 @@
         <v>46009</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32539,7 +32539,7 @@
         <v>46009</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32596,7 +32596,7 @@
         <v>45763.53839120371</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32653,7 +32653,7 @@
         <v>44749.77538194445</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32710,7 +32710,7 @@
         <v>45110</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>45169</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32824,7 +32824,7 @@
         <v>45408.68166666666</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32881,7 +32881,7 @@
         <v>45204.55690972223</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32938,7 +32938,7 @@
         <v>46057.41944444444</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         <v>46058</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33052,7 +33052,7 @@
         <v>44756.89907407408</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33109,7 +33109,7 @@
         <v>46058</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33166,7 +33166,7 @@
         <v>46058</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33223,7 +33223,7 @@
         <v>45240.65537037037</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33280,7 +33280,7 @@
         <v>45754.63101851852</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33337,7 +33337,7 @@
         <v>46059.46849537037</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>45317</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33451,7 +33451,7 @@
         <v>45448.52702546296</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33508,7 +33508,7 @@
         <v>46063</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33565,7 +33565,7 @@
         <v>45254.43631944444</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33622,7 +33622,7 @@
         <v>45531</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33679,7 +33679,7 @@
         <v>46063.63849537037</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33736,7 +33736,7 @@
         <v>45349.67712962963</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33793,7 +33793,7 @@
         <v>44503.73760416666</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33850,7 +33850,7 @@
         <v>44917</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33907,7 +33907,7 @@
         <v>45330</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33964,7 +33964,7 @@
         <v>44945</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34021,7 +34021,7 @@
         <v>45448.61481481481</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>45015</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34135,7 +34135,7 @@
         <v>45372.56440972222</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34192,7 +34192,7 @@
         <v>45348.83976851852</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34254,7 +34254,7 @@
         <v>45348.84033564815</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34316,7 +34316,7 @@
         <v>45348.84243055555</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34378,7 +34378,7 @@
         <v>45348.84297453704</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>45294.67804398148</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>45113</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>45274</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>44488</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>46026</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>46069</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>46069</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34839,7 +34839,7 @@
         <v>46030.34734953703</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>46030.35164351852</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>46030.53576388889</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45589.44753472223</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>45267.81273148148</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35129,7 +35129,7 @@
         <v>45267.8203125</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35191,7 +35191,7 @@
         <v>45267</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35253,7 +35253,7 @@
         <v>44818</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35310,7 +35310,7 @@
         <v>44879</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35367,7 +35367,7 @@
         <v>44621</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35424,7 +35424,7 @@
         <v>45215</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35481,7 +35481,7 @@
         <v>45523.6602662037</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35538,7 +35538,7 @@
         <v>45539.56</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35595,7 +35595,7 @@
         <v>45448.51262731481</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35652,7 +35652,7 @@
         <v>45258.62900462963</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35709,7 +35709,7 @@
         <v>46035.45234953704</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35766,7 +35766,7 @@
         <v>45433</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35823,7 +35823,7 @@
         <v>44488</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35880,7 +35880,7 @@
         <v>45560.40998842593</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35937,7 +35937,7 @@
         <v>44865</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35999,7 +35999,7 @@
         <v>45720.65146990741</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36056,7 +36056,7 @@
         <v>46035.6003125</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36113,7 +36113,7 @@
         <v>44743</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36170,7 +36170,7 @@
         <v>45742</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36227,7 +36227,7 @@
         <v>44585.98170138889</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36284,7 +36284,7 @@
         <v>46035.61033564815</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36341,7 +36341,7 @@
         <v>44917</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36398,7 +36398,7 @@
         <v>45566.88059027777</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36460,7 +36460,7 @@
         <v>45566.88295138889</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36522,7 +36522,7 @@
         <v>44951.6371412037</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36579,7 +36579,7 @@
         <v>45432.8953587963</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36641,7 +36641,7 @@
         <v>45526.77328703704</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>45369.47766203704</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36760,7 +36760,7 @@
         <v>46079.36331018519</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36817,7 +36817,7 @@
         <v>45469.51068287037</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36874,7 +36874,7 @@
         <v>46079.49085648148</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36931,7 +36931,7 @@
         <v>44862</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36988,7 +36988,7 @@
         <v>44446</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37045,7 +37045,7 @@
         <v>45028.37586805555</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37102,7 +37102,7 @@
         <v>45196</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37159,7 +37159,7 @@
         <v>44917.35297453704</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37216,7 +37216,7 @@
         <v>45405.52</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37273,7 +37273,7 @@
         <v>45405.52430555555</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37330,7 +37330,7 @@
         <v>45256.87429398148</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         <v>45034</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37444,7 +37444,7 @@
         <v>45209.5540625</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37501,7 +37501,7 @@
         <v>45056.64768518518</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37558,7 +37558,7 @@
         <v>44995.56314814815</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37615,7 +37615,7 @@
         <v>45379.69200231481</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37672,7 +37672,7 @@
         <v>44624.49346064815</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37729,7 +37729,7 @@
         <v>45337</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37786,7 +37786,7 @@
         <v>45448</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37843,7 +37843,7 @@
         <v>45448</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37900,7 +37900,7 @@
         <v>44505</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37957,7 +37957,7 @@
         <v>45617.87493055555</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38019,7 +38019,7 @@
         <v>44865</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38076,7 +38076,7 @@
         <v>44994.47293981481</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         <v>44973</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38195,7 +38195,7 @@
         <v>45096</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38252,7 +38252,7 @@
         <v>45204.56902777778</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38309,7 +38309,7 @@
         <v>44621.9492824074</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38366,7 +38366,7 @@
         <v>45372</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38423,7 +38423,7 @@
         <v>45604</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38480,7 +38480,7 @@
         <v>45196.87342592593</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38542,7 +38542,7 @@
         <v>45224.42729166667</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38599,7 +38599,7 @@
         <v>44963</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38656,7 +38656,7 @@
         <v>45098.64069444445</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38713,7 +38713,7 @@
         <v>45163.50626157408</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38770,7 +38770,7 @@
         <v>44564.60331018519</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         <v>45021</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38884,7 +38884,7 @@
         <v>45075.59990740741</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38941,7 +38941,7 @@
         <v>45007.34189814814</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39003,7 +39003,7 @@
         <v>44483</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39060,7 +39060,7 @@
         <v>44980.8393287037</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39117,7 +39117,7 @@
         <v>44620.87751157407</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39174,7 +39174,7 @@
         <v>44978.76613425926</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39231,7 +39231,7 @@
         <v>45531</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39288,7 +39288,7 @@
         <v>45212.75959490741</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39345,7 +39345,7 @@
         <v>44951.64454861111</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39402,7 +39402,7 @@
         <v>45621</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39459,7 +39459,7 @@
         <v>45240</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39516,7 +39516,7 @@
         <v>45372.60196759259</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39573,7 +39573,7 @@
         <v>45323</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39630,7 +39630,7 @@
         <v>45629.65581018518</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39687,7 +39687,7 @@
         <v>45610.41706018519</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39744,7 +39744,7 @@
         <v>45610.45115740741</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39801,7 +39801,7 @@
         <v>45610.45636574074</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39858,7 +39858,7 @@
         <v>45610.45759259259</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>45019</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39972,7 +39972,7 @@
         <v>45463.40362268518</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40029,7 +40029,7 @@
         <v>45341.80892361111</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40086,7 +40086,7 @@
         <v>45099</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>45113.64251157407</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40200,7 +40200,7 @@
         <v>45364.50273148148</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40257,7 +40257,7 @@
         <v>44977</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40314,7 +40314,7 @@
         <v>44987.48240740741</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40371,7 +40371,7 @@
         <v>45113</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40428,7 +40428,7 @@
         <v>45218.56766203704</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40485,7 +40485,7 @@
         <v>45051.67450231482</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40547,7 +40547,7 @@
         <v>45224.44980324074</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40604,7 +40604,7 @@
         <v>44755.59465277778</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40661,7 +40661,7 @@
         <v>45041.69135416667</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40718,7 +40718,7 @@
         <v>45240.37828703703</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40775,7 +40775,7 @@
         <v>45168</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40832,7 +40832,7 @@
         <v>44749.77997685185</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40889,7 +40889,7 @@
         <v>45736.49748842593</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         <v>45195</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41003,7 +41003,7 @@
         <v>45700.69986111111</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41060,7 +41060,7 @@
         <v>44664</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41117,7 +41117,7 @@
         <v>45369.47645833333</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41174,7 +41174,7 @@
         <v>45580.43162037037</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41231,7 +41231,7 @@
         <v>45314.63751157407</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41288,7 +41288,7 @@
         <v>44711.45408564815</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41345,7 +41345,7 @@
         <v>45110</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41402,7 +41402,7 @@
         <v>45110.47371527777</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41459,7 +41459,7 @@
         <v>44943</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41516,7 +41516,7 @@
         <v>45644.49186342592</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41573,7 +41573,7 @@
         <v>45113</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41630,7 +41630,7 @@
         <v>45701.37699074074</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41687,7 +41687,7 @@
         <v>45209</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41744,7 +41744,7 @@
         <v>45036</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41801,7 +41801,7 @@
         <v>45695.39277777778</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41858,7 +41858,7 @@
         <v>45728.50771990741</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41915,7 +41915,7 @@
         <v>45119.38265046296</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41972,7 +41972,7 @@
         <v>45469.6294212963</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42029,7 +42029,7 @@
         <v>45468.59137731481</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42091,7 +42091,7 @@
         <v>45740</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42148,7 +42148,7 @@
         <v>45754</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42205,7 +42205,7 @@
         <v>45469.6204050926</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42262,7 +42262,7 @@
         <v>45691</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42319,7 +42319,7 @@
         <v>45782.46638888889</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42381,7 +42381,7 @@
         <v>45782.44434027778</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42438,7 +42438,7 @@
         <v>45233</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42495,7 +42495,7 @@
         <v>45708.58996527778</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42552,7 +42552,7 @@
         <v>45572.45870370371</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42609,7 +42609,7 @@
         <v>45632.75246527778</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42666,7 +42666,7 @@
         <v>45728.39811342592</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42723,7 +42723,7 @@
         <v>45224</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42780,7 +42780,7 @@
         <v>45525.70791666667</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42837,7 +42837,7 @@
         <v>45754.60855324074</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42894,7 +42894,7 @@
         <v>45474.51827546296</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42951,7 +42951,7 @@
         <v>45792.60909722222</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43013,7 +43013,7 @@
         <v>45796.28685185185</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43070,7 +43070,7 @@
         <v>45204</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43127,7 +43127,7 @@
         <v>45797.45616898148</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43184,7 +43184,7 @@
         <v>45799.39888888889</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43241,7 +43241,7 @@
         <v>45526.89289351852</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43298,7 +43298,7 @@
         <v>45408.45277777778</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
